--- a/NO 6/words.xlsx
+++ b/NO 6/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\NO 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B59A61-F223-4624-8D70-4ECE54BB0FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0004C838-AFD4-4565-8F6F-95D3454DFC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="180">
   <si>
     <t>färdas</t>
   </si>
@@ -316,6 +316,255 @@
   </si>
   <si>
     <t>连在一起</t>
+  </si>
+  <si>
+    <t>kikare</t>
+  </si>
+  <si>
+    <t>förstås</t>
+  </si>
+  <si>
+    <t>bestämd</t>
+  </si>
+  <si>
+    <t>uppgift</t>
+  </si>
+  <si>
+    <t>detaljer</t>
+  </si>
+  <si>
+    <t>jämföra</t>
+  </si>
+  <si>
+    <t>följa</t>
+  </si>
+  <si>
+    <t>förändringar</t>
+  </si>
+  <si>
+    <t>avverkas</t>
+  </si>
+  <si>
+    <t>moln</t>
+  </si>
+  <si>
+    <t>befinner</t>
+  </si>
+  <si>
+    <t>fuktig</t>
+  </si>
+  <si>
+    <t>orkaner</t>
+  </si>
+  <si>
+    <t>ta emot</t>
+  </si>
+  <si>
+    <t>avstånd</t>
+  </si>
+  <si>
+    <t>nå</t>
+  </si>
+  <si>
+    <t>binoculars</t>
+  </si>
+  <si>
+    <t>of course</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>changes</t>
+  </si>
+  <si>
+    <t>deforested</t>
+  </si>
+  <si>
+    <t>clouds</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>moist</t>
+  </si>
+  <si>
+    <t>hurricanes</t>
+  </si>
+  <si>
+    <t>receive</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>望远镜</t>
+  </si>
+  <si>
+    <t>当然</t>
+  </si>
+  <si>
+    <t>具体</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>细节</t>
+  </si>
+  <si>
+    <t>比较</t>
+  </si>
+  <si>
+    <t>监控</t>
+  </si>
+  <si>
+    <t>变化</t>
+  </si>
+  <si>
+    <t>森林砍伐</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>发现</t>
+  </si>
+  <si>
+    <t>潮湿</t>
+  </si>
+  <si>
+    <t>飓风</t>
+  </si>
+  <si>
+    <t>接收</t>
+  </si>
+  <si>
+    <t>到达, 访问</t>
+  </si>
+  <si>
+    <t>saknas</t>
+  </si>
+  <si>
+    <t>ange</t>
+  </si>
+  <si>
+    <t>Upptäckter</t>
+  </si>
+  <si>
+    <t>nyfikenhet</t>
+  </si>
+  <si>
+    <t>fantasier</t>
+  </si>
+  <si>
+    <t>övertygas</t>
+  </si>
+  <si>
+    <t>uppfattningar</t>
+  </si>
+  <si>
+    <t>trodde</t>
+  </si>
+  <si>
+    <t>snurrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfären </t>
+  </si>
+  <si>
+    <t>himmels</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>stämmer</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>specify</t>
+  </si>
+  <si>
+    <t>Discoveries</t>
+  </si>
+  <si>
+    <t>curiosity</t>
+  </si>
+  <si>
+    <t>fantasies</t>
+  </si>
+  <si>
+    <t>being convinced</t>
+  </si>
+  <si>
+    <t>perceptions</t>
+  </si>
+  <si>
+    <t>believed</t>
+  </si>
+  <si>
+    <t>spun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sphere </t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>true, fit</t>
+  </si>
+  <si>
+    <t>指定</t>
+  </si>
+  <si>
+    <t>好奇心</t>
+  </si>
+  <si>
+    <t>幻想</t>
+  </si>
+  <si>
+    <t>确信</t>
+  </si>
+  <si>
+    <t>认知</t>
+  </si>
+  <si>
+    <t>相信</t>
+  </si>
+  <si>
+    <t>旋转</t>
+  </si>
+  <si>
+    <t xml:space="preserve">球体 </t>
+  </si>
+  <si>
+    <t>固定的</t>
+  </si>
+  <si>
+    <t>丢失的</t>
+  </si>
+  <si>
+    <t>真， 适合</t>
   </si>
 </sst>
 </file>
@@ -661,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1038,6 +1287,336 @@
         <v>95</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/NO 6/words.xlsx
+++ b/NO 6/words.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\NO 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0004C838-AFD4-4565-8F6F-95D3454DFC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AC6098-D4FE-4C6E-8DC8-F2C0FE6A6EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter1" sheetId="1" r:id="rId1"/>
+    <sheet name="25" sheetId="2" r:id="rId2"/>
+    <sheet name="26" sheetId="3" r:id="rId3"/>
+    <sheet name="27" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="360">
   <si>
     <t>färdas</t>
   </si>
@@ -565,6 +568,546 @@
   </si>
   <si>
     <t>真， 适合</t>
+  </si>
+  <si>
+    <t>tvivla</t>
+  </si>
+  <si>
+    <t>klot</t>
+  </si>
+  <si>
+    <t>går ju att</t>
+  </si>
+  <si>
+    <t>tagits</t>
+  </si>
+  <si>
+    <t>insåg</t>
+  </si>
+  <si>
+    <t>vetenskapsmannen</t>
+  </si>
+  <si>
+    <t>omkretsen</t>
+  </si>
+  <si>
+    <t>Handel</t>
+  </si>
+  <si>
+    <t>upptäcktsresande</t>
+  </si>
+  <si>
+    <t>bevisen</t>
+  </si>
+  <si>
+    <t>ansåg</t>
+  </si>
+  <si>
+    <t>brister</t>
+  </si>
+  <si>
+    <t>beräkningar</t>
+  </si>
+  <si>
+    <t>menade</t>
+  </si>
+  <si>
+    <t>tog</t>
+  </si>
+  <si>
+    <t>allvar</t>
+  </si>
+  <si>
+    <t>dröja</t>
+  </si>
+  <si>
+    <t>tydligare</t>
+  </si>
+  <si>
+    <t>övertyga</t>
+  </si>
+  <si>
+    <t>katolska</t>
+  </si>
+  <si>
+    <t>självklart</t>
+  </si>
+  <si>
+    <t>otänkbart</t>
+  </si>
+  <si>
+    <t>väldigt</t>
+  </si>
+  <si>
+    <t>makt</t>
+  </si>
+  <si>
+    <t>vågade</t>
+  </si>
+  <si>
+    <t>emot</t>
+  </si>
+  <si>
+    <t>detta</t>
+  </si>
+  <si>
+    <t>tvingades</t>
+  </si>
+  <si>
+    <t>ursäkt</t>
+  </si>
+  <si>
+    <t>fel</t>
+  </si>
+  <si>
+    <t>redskap</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>observatorium</t>
+  </si>
+  <si>
+    <t>doubt</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>can be</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>realized</t>
+  </si>
+  <si>
+    <t>scientist</t>
+  </si>
+  <si>
+    <t>the circumference</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>explorer</t>
+  </si>
+  <si>
+    <t>the evidence</t>
+  </si>
+  <si>
+    <t>considered</t>
+  </si>
+  <si>
+    <t>deficiencies</t>
+  </si>
+  <si>
+    <t>calculations</t>
+  </si>
+  <si>
+    <t>opined</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>convincingly</t>
+  </si>
+  <si>
+    <t>Catholic</t>
+  </si>
+  <si>
+    <t>unthinkable</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>dared</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>was forced</t>
+  </si>
+  <si>
+    <t>apology</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>observatory</t>
+  </si>
+  <si>
+    <t>疑问</t>
+  </si>
+  <si>
+    <t>球体</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>实现</t>
+  </si>
+  <si>
+    <t>科学家</t>
+  </si>
+  <si>
+    <t>周长</t>
+  </si>
+  <si>
+    <t>贸易</t>
+  </si>
+  <si>
+    <t>探险家</t>
+  </si>
+  <si>
+    <t>证据</t>
+  </si>
+  <si>
+    <t>认为</t>
+  </si>
+  <si>
+    <t>不足之处</t>
+  </si>
+  <si>
+    <t>计算</t>
+  </si>
+  <si>
+    <t>认真对待</t>
+  </si>
+  <si>
+    <t>认真</t>
+  </si>
+  <si>
+    <t>延误</t>
+  </si>
+  <si>
+    <t>更明确</t>
+  </si>
+  <si>
+    <t>说服</t>
+  </si>
+  <si>
+    <t>天主教徒</t>
+  </si>
+  <si>
+    <t>不可思议</t>
+  </si>
+  <si>
+    <t>非常</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>敢于</t>
+  </si>
+  <si>
+    <t>反对</t>
+  </si>
+  <si>
+    <t>这</t>
+  </si>
+  <si>
+    <t>被迫</t>
+  </si>
+  <si>
+    <t>道歉</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>仪器</t>
+  </si>
+  <si>
+    <t>观察站, 天文台</t>
+  </si>
+  <si>
+    <t>tänds</t>
+  </si>
+  <si>
+    <t>slocknar</t>
+  </si>
+  <si>
+    <t>stoft</t>
+  </si>
+  <si>
+    <t>nebulosan</t>
+  </si>
+  <si>
+    <t>bränsle</t>
+  </si>
+  <si>
+    <t>ta slut</t>
+  </si>
+  <si>
+    <t>sväller upp</t>
+  </si>
+  <si>
+    <t>sjunker</t>
+  </si>
+  <si>
+    <t>drar</t>
+  </si>
+  <si>
+    <t>slutet</t>
+  </si>
+  <si>
+    <t>slutar</t>
+  </si>
+  <si>
+    <t>lämna</t>
+  </si>
+  <si>
+    <t>säker</t>
+  </si>
+  <si>
+    <t>blossar</t>
+  </si>
+  <si>
+    <t>exploderar</t>
+  </si>
+  <si>
+    <t>slungas</t>
+  </si>
+  <si>
+    <t>iväg</t>
+  </si>
+  <si>
+    <t>kvar</t>
+  </si>
+  <si>
+    <t>lights up</t>
+  </si>
+  <si>
+    <t>goes out</t>
+  </si>
+  <si>
+    <t>dust</t>
+  </si>
+  <si>
+    <t>nebula</t>
+  </si>
+  <si>
+    <t>run out</t>
+  </si>
+  <si>
+    <t>swells up</t>
+  </si>
+  <si>
+    <t>sinks</t>
+  </si>
+  <si>
+    <t>pulls</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>ends</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>flares</t>
+  </si>
+  <si>
+    <t>explodes</t>
+  </si>
+  <si>
+    <t>thrown</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>left behind</t>
+  </si>
+  <si>
+    <t>亮起</t>
+  </si>
+  <si>
+    <t>熄灭</t>
+  </si>
+  <si>
+    <t>尘埃</t>
+  </si>
+  <si>
+    <t>星云</t>
+  </si>
+  <si>
+    <t>耗尽</t>
+  </si>
+  <si>
+    <t>膨胀</t>
+  </si>
+  <si>
+    <t>下沉</t>
+  </si>
+  <si>
+    <t>汲取</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>离开</t>
+  </si>
+  <si>
+    <t>耀斑</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>被扔掉</t>
+  </si>
+  <si>
+    <t>扔掉</t>
+  </si>
+  <si>
+    <t>留下</t>
+  </si>
+  <si>
+    <t>safe, sure</t>
+  </si>
+  <si>
+    <t>安全的， 确定的</t>
+  </si>
+  <si>
+    <t>årstider</t>
+  </si>
+  <si>
+    <t>ljusår</t>
+  </si>
+  <si>
+    <t>uppfattningen</t>
+  </si>
+  <si>
+    <t>planeter</t>
+  </si>
+  <si>
+    <t>månar</t>
+  </si>
+  <si>
+    <t>asteroider</t>
+  </si>
+  <si>
+    <t>tänkta</t>
+  </si>
+  <si>
+    <t>linje</t>
+  </si>
+  <si>
+    <t>ett varv rund</t>
+  </si>
+  <si>
+    <t>forskare</t>
+  </si>
+  <si>
+    <t>astronaut</t>
+  </si>
+  <si>
+    <t>astronom</t>
+  </si>
+  <si>
+    <t>axel</t>
+  </si>
+  <si>
+    <t>seasons</t>
+  </si>
+  <si>
+    <t>light years</t>
+  </si>
+  <si>
+    <t>perception</t>
+  </si>
+  <si>
+    <t>planets</t>
+  </si>
+  <si>
+    <t>moons</t>
+  </si>
+  <si>
+    <t>asteroids</t>
+  </si>
+  <si>
+    <t>imaginary</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>one turn round</t>
+  </si>
+  <si>
+    <t>astronomer</t>
+  </si>
+  <si>
+    <t>axis</t>
+  </si>
+  <si>
+    <t>季节</t>
+  </si>
+  <si>
+    <t>光年</t>
+  </si>
+  <si>
+    <t>行星</t>
+  </si>
+  <si>
+    <t>卫星</t>
+  </si>
+  <si>
+    <t>小行星</t>
+  </si>
+  <si>
+    <t>想象的</t>
+  </si>
+  <si>
+    <t>线</t>
+  </si>
+  <si>
+    <t>一圈</t>
+  </si>
+  <si>
+    <t>宇航员</t>
+  </si>
+  <si>
+    <t>轴</t>
+  </si>
+  <si>
+    <t>观点</t>
   </si>
 </sst>
 </file>
@@ -912,9 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1621,4 +2162,791 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C91FA-1948-4AB4-8761-7624062EA192}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="22.20703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.68359375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EB2CB1-C821-4110-9314-98B9A9D3EE1A}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.1015625" customWidth="1"/>
+    <col min="2" max="2" width="12.578125" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F47850E-37FD-42E6-865D-1EE7B2FADF4E}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.83984375" customWidth="1"/>
+    <col min="2" max="2" width="13.15625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NO 6/words.xlsx
+++ b/NO 6/words.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\NO 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AC6098-D4FE-4C6E-8DC8-F2C0FE6A6EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137AB142-76D4-4B3F-8661-B77136DF0355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter1" sheetId="1" r:id="rId1"/>
     <sheet name="25" sheetId="2" r:id="rId2"/>
     <sheet name="26" sheetId="3" r:id="rId3"/>
     <sheet name="27" sheetId="4" r:id="rId4"/>
+    <sheet name="29-30" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="475">
   <si>
     <t>färdas</t>
   </si>
@@ -1108,6 +1109,351 @@
   </si>
   <si>
     <t>观点</t>
+  </si>
+  <si>
+    <t>dobbar</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>sledgehammer</t>
+  </si>
+  <si>
+    <t>thrower</t>
+  </si>
+  <si>
+    <t>sledgehammer thrower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some things </t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>falls</t>
+  </si>
+  <si>
+    <t>continues</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>regardless of</t>
+  </si>
+  <si>
+    <t>gravitational force</t>
+  </si>
+  <si>
+    <t>center of gravity</t>
+  </si>
+  <si>
+    <t>supporting surface</t>
+  </si>
+  <si>
+    <t>snabbare</t>
+  </si>
+  <si>
+    <t>slägga</t>
+  </si>
+  <si>
+    <t>kastare</t>
+  </si>
+  <si>
+    <t>slägga kastare</t>
+  </si>
+  <si>
+    <t>snurrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vissa saker </t>
+  </si>
+  <si>
+    <t>rakt</t>
+  </si>
+  <si>
+    <t>faller</t>
+  </si>
+  <si>
+    <t>fortsätter</t>
+  </si>
+  <si>
+    <t>säkert</t>
+  </si>
+  <si>
+    <t>härlig</t>
+  </si>
+  <si>
+    <t>känsla</t>
+  </si>
+  <si>
+    <t>oavsett</t>
+  </si>
+  <si>
+    <t>stopp</t>
+  </si>
+  <si>
+    <t>hastighet</t>
+  </si>
+  <si>
+    <t>Gravitationskraft</t>
+  </si>
+  <si>
+    <t>tyngdpunkt</t>
+  </si>
+  <si>
+    <t>stödjande yta</t>
+  </si>
+  <si>
+    <t>Friktionskraft</t>
+  </si>
+  <si>
+    <t>fors</t>
+  </si>
+  <si>
+    <t>Troligen</t>
+  </si>
+  <si>
+    <t>bromsar</t>
+  </si>
+  <si>
+    <t>vägkorsningar</t>
+  </si>
+  <si>
+    <t>farten</t>
+  </si>
+  <si>
+    <t>nerförsbacke</t>
+  </si>
+  <si>
+    <t>raksträcka</t>
+  </si>
+  <si>
+    <t>genomsnittligt</t>
+  </si>
+  <si>
+    <t>enheter</t>
+  </si>
+  <si>
+    <t>anges</t>
+  </si>
+  <si>
+    <t>kör</t>
+  </si>
+  <si>
+    <t>hastighetsmätaren</t>
+  </si>
+  <si>
+    <t>vägskyltar</t>
+  </si>
+  <si>
+    <t>begränsningar</t>
+  </si>
+  <si>
+    <t>skottet</t>
+  </si>
+  <si>
+    <t>smäller</t>
+  </si>
+  <si>
+    <t>ytterligare</t>
+  </si>
+  <si>
+    <t>öka</t>
+  </si>
+  <si>
+    <t>retardera</t>
+  </si>
+  <si>
+    <t>motsvarar</t>
+  </si>
+  <si>
+    <t>spins</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>lovely</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>Frictional force</t>
+  </si>
+  <si>
+    <t>rapids</t>
+  </si>
+  <si>
+    <t>Probably</t>
+  </si>
+  <si>
+    <t>brakes</t>
+  </si>
+  <si>
+    <t>road junctions</t>
+  </si>
+  <si>
+    <t>downhill</t>
+  </si>
+  <si>
+    <t>straight stretch</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>indicated</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>speedometer</t>
+  </si>
+  <si>
+    <t>road signs</t>
+  </si>
+  <si>
+    <t>restrictions</t>
+  </si>
+  <si>
+    <t>bulkhead</t>
+  </si>
+  <si>
+    <t>banging</t>
+  </si>
+  <si>
+    <t>further</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>decelerate</t>
+  </si>
+  <si>
+    <t>corresponds to</t>
+  </si>
+  <si>
+    <t>studs</t>
+  </si>
+  <si>
+    <t>钉子</t>
+  </si>
+  <si>
+    <t>更快</t>
+  </si>
+  <si>
+    <t>大锤</t>
+  </si>
+  <si>
+    <t>投掷器</t>
+  </si>
+  <si>
+    <t>大锤投掷器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一些东西 </t>
+  </si>
+  <si>
+    <t>直</t>
+  </si>
+  <si>
+    <t>倒下</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>可爱</t>
+  </si>
+  <si>
+    <t>感觉</t>
+  </si>
+  <si>
+    <t>无论</t>
+  </si>
+  <si>
+    <t>停</t>
+  </si>
+  <si>
+    <t>重力</t>
+  </si>
+  <si>
+    <t>重心</t>
+  </si>
+  <si>
+    <t>支撑面</t>
+  </si>
+  <si>
+    <t>摩擦力</t>
+  </si>
+  <si>
+    <t>急流</t>
+  </si>
+  <si>
+    <t>可能</t>
+  </si>
+  <si>
+    <t>制动器</t>
+  </si>
+  <si>
+    <t>路口</t>
+  </si>
+  <si>
+    <t>下坡</t>
+  </si>
+  <si>
+    <t>直线路段</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>规定</t>
+  </si>
+  <si>
+    <t>行驶</t>
+  </si>
+  <si>
+    <t>速度计</t>
+  </si>
+  <si>
+    <t>路标</t>
+  </si>
+  <si>
+    <t>限制</t>
+  </si>
+  <si>
+    <t>镜头</t>
+  </si>
+  <si>
+    <t>咣当</t>
+  </si>
+  <si>
+    <t>进一步</t>
+  </si>
+  <si>
+    <t>增加</t>
+  </si>
+  <si>
+    <t>减速</t>
+  </si>
+  <si>
+    <t>对应于</t>
   </si>
 </sst>
 </file>
@@ -1457,15 +1803,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1487,7 +1833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1509,7 +1855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1520,7 +1866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1542,7 +1888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1553,7 +1899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1575,7 +1921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +1932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1597,7 +1943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +1954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1619,7 +1965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1630,7 +1976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1641,7 +1987,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1652,7 +1998,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1663,7 +2009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -1674,7 +2020,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -1685,7 +2031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1696,7 +2042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -1707,7 +2053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1718,7 +2064,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1729,7 +2075,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -1740,7 +2086,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -1751,7 +2097,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -1762,7 +2108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1773,7 +2119,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -1784,7 +2130,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1795,7 +2141,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -1806,7 +2152,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -1817,7 +2163,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -1828,7 +2174,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -1839,7 +2185,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -1850,7 +2196,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>99</v>
       </c>
@@ -1861,7 +2207,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -1872,7 +2218,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>101</v>
       </c>
@@ -1883,7 +2229,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -1894,7 +2240,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>103</v>
       </c>
@@ -1905,7 +2251,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>104</v>
       </c>
@@ -1916,7 +2262,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>105</v>
       </c>
@@ -1927,7 +2273,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>106</v>
       </c>
@@ -1938,7 +2284,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
@@ -1949,7 +2295,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -1960,7 +2306,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -1971,7 +2317,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>109</v>
       </c>
@@ -1982,7 +2328,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>110</v>
       </c>
@@ -1993,7 +2339,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
@@ -2004,7 +2350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>112</v>
       </c>
@@ -2015,7 +2361,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
@@ -2026,7 +2372,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
@@ -2037,7 +2383,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>145</v>
       </c>
@@ -2048,7 +2394,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>146</v>
       </c>
@@ -2059,7 +2405,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>147</v>
       </c>
@@ -2070,7 +2416,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>148</v>
       </c>
@@ -2081,7 +2427,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>149</v>
       </c>
@@ -2092,7 +2438,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>150</v>
       </c>
@@ -2103,7 +2449,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>151</v>
       </c>
@@ -2114,7 +2460,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>152</v>
       </c>
@@ -2125,7 +2471,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>153</v>
       </c>
@@ -2136,7 +2482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>154</v>
       </c>
@@ -2147,7 +2493,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>155</v>
       </c>
@@ -2172,15 +2518,15 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.20703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.68359375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3671875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -2191,7 +2537,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>181</v>
       </c>
@@ -2202,7 +2548,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>182</v>
       </c>
@@ -2213,7 +2559,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>183</v>
       </c>
@@ -2224,7 +2570,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>184</v>
       </c>
@@ -2235,7 +2581,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>185</v>
       </c>
@@ -2246,7 +2592,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>186</v>
       </c>
@@ -2257,7 +2603,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>187</v>
       </c>
@@ -2268,7 +2614,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>188</v>
       </c>
@@ -2279,7 +2625,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>189</v>
       </c>
@@ -2290,7 +2636,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>190</v>
       </c>
@@ -2301,7 +2647,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>191</v>
       </c>
@@ -2312,7 +2658,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>192</v>
       </c>
@@ -2323,7 +2669,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>193</v>
       </c>
@@ -2334,7 +2680,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>194</v>
       </c>
@@ -2345,7 +2691,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>195</v>
       </c>
@@ -2356,7 +2702,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>196</v>
       </c>
@@ -2367,7 +2713,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>197</v>
       </c>
@@ -2378,7 +2724,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>198</v>
       </c>
@@ -2389,7 +2735,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>199</v>
       </c>
@@ -2400,7 +2746,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
@@ -2411,7 +2757,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>201</v>
       </c>
@@ -2422,7 +2768,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>202</v>
       </c>
@@ -2433,7 +2779,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>203</v>
       </c>
@@ -2444,7 +2790,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>204</v>
       </c>
@@ -2455,7 +2801,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>205</v>
       </c>
@@ -2466,7 +2812,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>206</v>
       </c>
@@ -2477,7 +2823,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>207</v>
       </c>
@@ -2488,7 +2834,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>151</v>
       </c>
@@ -2499,7 +2845,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>208</v>
       </c>
@@ -2510,7 +2856,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>209</v>
       </c>
@@ -2521,7 +2867,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>210</v>
       </c>
@@ -2532,7 +2878,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>211</v>
       </c>
@@ -2543,7 +2889,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>212</v>
       </c>
@@ -2568,14 +2914,14 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1015625" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="14.68359375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>274</v>
       </c>
@@ -2586,7 +2932,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>275</v>
       </c>
@@ -2597,7 +2943,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -2608,7 +2954,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>276</v>
       </c>
@@ -2619,7 +2965,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>277</v>
       </c>
@@ -2630,7 +2976,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>278</v>
       </c>
@@ -2641,7 +2987,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>279</v>
       </c>
@@ -2652,7 +2998,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -2663,7 +3009,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>281</v>
       </c>
@@ -2674,7 +3020,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>282</v>
       </c>
@@ -2685,7 +3031,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>283</v>
       </c>
@@ -2696,7 +3042,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -2707,7 +3053,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -2718,7 +3064,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>286</v>
       </c>
@@ -2729,7 +3075,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>287</v>
       </c>
@@ -2740,7 +3086,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -2751,7 +3097,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>289</v>
       </c>
@@ -2762,7 +3108,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>290</v>
       </c>
@@ -2773,7 +3119,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>291</v>
       </c>
@@ -2793,17 +3139,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F47850E-37FD-42E6-865D-1EE7B2FADF4E}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83984375" customWidth="1"/>
-    <col min="2" max="2" width="13.15625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>325</v>
       </c>
@@ -2814,7 +3160,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>326</v>
       </c>
@@ -2825,7 +3171,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>327</v>
       </c>
@@ -2836,7 +3182,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>328</v>
       </c>
@@ -2847,7 +3193,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -2858,7 +3204,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>330</v>
       </c>
@@ -2869,7 +3215,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>331</v>
       </c>
@@ -2880,7 +3226,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -2891,7 +3237,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>333</v>
       </c>
@@ -2902,7 +3248,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>334</v>
       </c>
@@ -2913,7 +3259,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>335</v>
       </c>
@@ -2924,7 +3270,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>336</v>
       </c>
@@ -2935,7 +3281,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>337</v>
       </c>
@@ -2944,6 +3290,477 @@
       </c>
       <c r="C13" t="s">
         <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6B5CA-8D95-4FC5-9AA8-51D2CA80169F}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C20" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>395</v>
+      </c>
+      <c r="B24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>397</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>398</v>
+      </c>
+      <c r="B27" t="s">
+        <v>422</v>
+      </c>
+      <c r="C27" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>399</v>
+      </c>
+      <c r="B28" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" t="s">
+        <v>424</v>
+      </c>
+      <c r="C29" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" t="s">
+        <v>426</v>
+      </c>
+      <c r="C31" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>403</v>
+      </c>
+      <c r="B32" t="s">
+        <v>427</v>
+      </c>
+      <c r="C32" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" t="s">
+        <v>428</v>
+      </c>
+      <c r="C33" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>405</v>
+      </c>
+      <c r="B34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C34" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>406</v>
+      </c>
+      <c r="B35" t="s">
+        <v>430</v>
+      </c>
+      <c r="C35" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>407</v>
+      </c>
+      <c r="B36" t="s">
+        <v>431</v>
+      </c>
+      <c r="C36" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>408</v>
+      </c>
+      <c r="B37" t="s">
+        <v>432</v>
+      </c>
+      <c r="C37" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>409</v>
+      </c>
+      <c r="B38" t="s">
+        <v>433</v>
+      </c>
+      <c r="C38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>410</v>
+      </c>
+      <c r="B39" t="s">
+        <v>434</v>
+      </c>
+      <c r="C39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>411</v>
+      </c>
+      <c r="B40" t="s">
+        <v>435</v>
+      </c>
+      <c r="C40" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>412</v>
+      </c>
+      <c r="B41" t="s">
+        <v>436</v>
+      </c>
+      <c r="C41" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/NO 6/words.xlsx
+++ b/NO 6/words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\NO 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137AB142-76D4-4B3F-8661-B77136DF0355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41058C6-DB62-499A-8174-DD0FD892B7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="26" sheetId="3" r:id="rId3"/>
     <sheet name="27" sheetId="4" r:id="rId4"/>
     <sheet name="29-30" sheetId="5" r:id="rId5"/>
+    <sheet name="38" sheetId="6" r:id="rId6"/>
+    <sheet name="39" sheetId="7" r:id="rId7"/>
+    <sheet name="40" sheetId="8" r:id="rId8"/>
+    <sheet name="42" sheetId="9" r:id="rId9"/>
+    <sheet name="43" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="869">
   <si>
     <t>färdas</t>
   </si>
@@ -1454,6 +1459,1188 @@
   </si>
   <si>
     <t>对应于</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gasar </t>
+  </si>
+  <si>
+    <t>föraren</t>
+  </si>
+  <si>
+    <t>stegrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bromsa </t>
+  </si>
+  <si>
+    <t>broms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordentligt </t>
+  </si>
+  <si>
+    <t>fastspänd</t>
+  </si>
+  <si>
+    <t>fallskärmshoppare</t>
+  </si>
+  <si>
+    <t>kastar</t>
+  </si>
+  <si>
+    <t>nämligen</t>
+  </si>
+  <si>
+    <t>når</t>
+  </si>
+  <si>
+    <t>gränshastighet</t>
+  </si>
+  <si>
+    <t>gräns</t>
+  </si>
+  <si>
+    <t>viss</t>
+  </si>
+  <si>
+    <t>luftmotståndet</t>
+  </si>
+  <si>
+    <t>ståndet</t>
+  </si>
+  <si>
+    <t>Banan</t>
+  </si>
+  <si>
+    <t>lutad</t>
+  </si>
+  <si>
+    <t>Badminton</t>
+  </si>
+  <si>
+    <t>slå</t>
+  </si>
+  <si>
+    <t>fjäderboll</t>
+  </si>
+  <si>
+    <t>motspelaren</t>
+  </si>
+  <si>
+    <t>slaget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accelerates </t>
+  </si>
+  <si>
+    <t>the driver</t>
+  </si>
+  <si>
+    <t>stepping on the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">properly </t>
+  </si>
+  <si>
+    <t>strapped in</t>
+  </si>
+  <si>
+    <t>parachutist</t>
+  </si>
+  <si>
+    <t>throws</t>
+  </si>
+  <si>
+    <t>namely</t>
+  </si>
+  <si>
+    <t>reaches</t>
+  </si>
+  <si>
+    <t>limit velocity</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>air resistance</t>
+  </si>
+  <si>
+    <t>the stand</t>
+  </si>
+  <si>
+    <t>trajectory</t>
+  </si>
+  <si>
+    <t>inclined</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>shuttlecock</t>
+  </si>
+  <si>
+    <t>the opponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加速 </t>
+  </si>
+  <si>
+    <t>驾驶员</t>
+  </si>
+  <si>
+    <t>踩下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正确 </t>
+  </si>
+  <si>
+    <t>系好安全带</t>
+  </si>
+  <si>
+    <t>跳伞员</t>
+  </si>
+  <si>
+    <t>抛投</t>
+  </si>
+  <si>
+    <t>即</t>
+  </si>
+  <si>
+    <t>达到</t>
+  </si>
+  <si>
+    <t>极限速度</t>
+  </si>
+  <si>
+    <t>极限</t>
+  </si>
+  <si>
+    <t>一定</t>
+  </si>
+  <si>
+    <t>空气阻力</t>
+  </si>
+  <si>
+    <t>支架</t>
+  </si>
+  <si>
+    <t>运动轨迹</t>
+  </si>
+  <si>
+    <t>倾斜</t>
+  </si>
+  <si>
+    <t>羽毛球</t>
+  </si>
+  <si>
+    <t>击球</t>
+  </si>
+  <si>
+    <t>毽子</t>
+  </si>
+  <si>
+    <t>对手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(verb) brake </t>
+  </si>
+  <si>
+    <t>(noun) brake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(动词) 刹车 </t>
+  </si>
+  <si>
+    <t>(名词) 刹车</t>
+  </si>
+  <si>
+    <t>medelhastighet</t>
+  </si>
+  <si>
+    <t>ytor</t>
+  </si>
+  <si>
+    <t>gnids</t>
+  </si>
+  <si>
+    <t>varandra</t>
+  </si>
+  <si>
+    <t>uttryckt</t>
+  </si>
+  <si>
+    <t>motverkar</t>
+  </si>
+  <si>
+    <t>motkraft</t>
+  </si>
+  <si>
+    <t>flyttar</t>
+  </si>
+  <si>
+    <t>stödyta</t>
+  </si>
+  <si>
+    <t>föremål</t>
+  </si>
+  <si>
+    <t>vikt</t>
+  </si>
+  <si>
+    <t>delar upp</t>
+  </si>
+  <si>
+    <t>kloss</t>
+  </si>
+  <si>
+    <t>golvytan</t>
+  </si>
+  <si>
+    <t>tidvatten</t>
+  </si>
+  <si>
+    <t>förändring</t>
+  </si>
+  <si>
+    <t>havsnivån</t>
+  </si>
+  <si>
+    <t>nivån</t>
+  </si>
+  <si>
+    <t>massa</t>
+  </si>
+  <si>
+    <t>Välj</t>
+  </si>
+  <si>
+    <t>alternativ</t>
+  </si>
+  <si>
+    <t>motivera</t>
+  </si>
+  <si>
+    <t>väger</t>
+  </si>
+  <si>
+    <t>håller</t>
+  </si>
+  <si>
+    <t>möjligt</t>
+  </si>
+  <si>
+    <t>surfaces</t>
+  </si>
+  <si>
+    <t>rubs</t>
+  </si>
+  <si>
+    <t>each other</t>
+  </si>
+  <si>
+    <t>expressed</t>
+  </si>
+  <si>
+    <t>counteracts</t>
+  </si>
+  <si>
+    <t>counterforce</t>
+  </si>
+  <si>
+    <t>average speed</t>
+  </si>
+  <si>
+    <t>moves</t>
+  </si>
+  <si>
+    <t>support surface</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>splits up</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>floor surface</t>
+  </si>
+  <si>
+    <t>tide</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>sea level</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>justify</t>
+  </si>
+  <si>
+    <t>weighs</t>
+  </si>
+  <si>
+    <t>holds</t>
+  </si>
+  <si>
+    <t>retain</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>表面</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>抵消</t>
+  </si>
+  <si>
+    <t>反作用力</t>
+  </si>
+  <si>
+    <t>平均速度</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>物体</t>
+  </si>
+  <si>
+    <t>重量</t>
+  </si>
+  <si>
+    <t>块</t>
+  </si>
+  <si>
+    <t>地面</t>
+  </si>
+  <si>
+    <t>潮汐</t>
+  </si>
+  <si>
+    <t>海平面</t>
+  </si>
+  <si>
+    <t>水平面</t>
+  </si>
+  <si>
+    <t>质量</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
+    <t>证明</t>
+  </si>
+  <si>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>互相</t>
+  </si>
+  <si>
+    <t>摩擦</t>
+  </si>
+  <si>
+    <t>分裂, 分散</t>
+  </si>
+  <si>
+    <t>称重， 重量</t>
+  </si>
+  <si>
+    <t>支撑</t>
+  </si>
+  <si>
+    <t>utveckling</t>
+  </si>
+  <si>
+    <t>funnits</t>
+  </si>
+  <si>
+    <t>nässeldjur</t>
+  </si>
+  <si>
+    <t>sköldpaddan</t>
+  </si>
+  <si>
+    <t>skal</t>
+  </si>
+  <si>
+    <t>Även</t>
+  </si>
+  <si>
+    <t>källor</t>
+  </si>
+  <si>
+    <t>bubblar</t>
+  </si>
+  <si>
+    <t>kokar</t>
+  </si>
+  <si>
+    <t>klarar av</t>
+  </si>
+  <si>
+    <t>frätande</t>
+  </si>
+  <si>
+    <t>syror</t>
+  </si>
+  <si>
+    <t>sväva</t>
+  </si>
+  <si>
+    <t>tunna</t>
+  </si>
+  <si>
+    <t>livsviktiga</t>
+  </si>
+  <si>
+    <t>dödligt</t>
+  </si>
+  <si>
+    <t>giftiga</t>
+  </si>
+  <si>
+    <t>bakterierna</t>
+  </si>
+  <si>
+    <t>ingår</t>
+  </si>
+  <si>
+    <t>been found</t>
+  </si>
+  <si>
+    <t>stinging nettle</t>
+  </si>
+  <si>
+    <t>the turtle</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>Also</t>
+  </si>
+  <si>
+    <t>springs</t>
+  </si>
+  <si>
+    <t>bubbles</t>
+  </si>
+  <si>
+    <t>boils</t>
+  </si>
+  <si>
+    <t>can cope with</t>
+  </si>
+  <si>
+    <t>corrosive</t>
+  </si>
+  <si>
+    <t>acids</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>poisonous</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>are included</t>
+  </si>
+  <si>
+    <t>被发现</t>
+  </si>
+  <si>
+    <t>荨麻</t>
+  </si>
+  <si>
+    <t>乌龟</t>
+  </si>
+  <si>
+    <t>壳</t>
+  </si>
+  <si>
+    <t>还有</t>
+  </si>
+  <si>
+    <t>泉水</t>
+  </si>
+  <si>
+    <t>气泡</t>
+  </si>
+  <si>
+    <t>沸腾</t>
+  </si>
+  <si>
+    <t>能承受</t>
+  </si>
+  <si>
+    <t>腐蚀性</t>
+  </si>
+  <si>
+    <t>酸</t>
+  </si>
+  <si>
+    <t>漂浮</t>
+  </si>
+  <si>
+    <t>致命的</t>
+  </si>
+  <si>
+    <t>细菌</t>
+  </si>
+  <si>
+    <t>必不可少的，重要的</t>
+  </si>
+  <si>
+    <t>有毒的</t>
+  </si>
+  <si>
+    <t>被包括</t>
+  </si>
+  <si>
+    <t>薄的</t>
+  </si>
+  <si>
+    <t>强烈的</t>
+  </si>
+  <si>
+    <t>development, evolution</t>
+  </si>
+  <si>
+    <t>发展, 演化</t>
+  </si>
+  <si>
+    <t>skett</t>
+  </si>
+  <si>
+    <t>delat in</t>
+  </si>
+  <si>
+    <t>urcellen</t>
+  </si>
+  <si>
+    <t>fanns</t>
+  </si>
+  <si>
+    <t>utvecklades</t>
+  </si>
+  <si>
+    <t>Dinosaurier</t>
+  </si>
+  <si>
+    <t>levde</t>
+  </si>
+  <si>
+    <t>berättar</t>
+  </si>
+  <si>
+    <t>spår</t>
+  </si>
+  <si>
+    <t>förstenade</t>
+  </si>
+  <si>
+    <t>rester</t>
+  </si>
+  <si>
+    <t>begravts</t>
+  </si>
+  <si>
+    <t>bevarats</t>
+  </si>
+  <si>
+    <t>snäckor</t>
+  </si>
+  <si>
+    <t>fossilfynd</t>
+  </si>
+  <si>
+    <t>fossiliserad</t>
+  </si>
+  <si>
+    <t>pusselbitar</t>
+  </si>
+  <si>
+    <t>ta reda</t>
+  </si>
+  <si>
+    <t>förändrats</t>
+  </si>
+  <si>
+    <t>forskar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spelar stor roll </t>
+  </si>
+  <si>
+    <t>berggrunden</t>
+  </si>
+  <si>
+    <t>bärnsten</t>
+  </si>
+  <si>
+    <t>kåda</t>
+  </si>
+  <si>
+    <t>höger</t>
+  </si>
+  <si>
+    <t>occurred</t>
+  </si>
+  <si>
+    <t>divided into</t>
+  </si>
+  <si>
+    <t>the primordial cell</t>
+  </si>
+  <si>
+    <t>developed</t>
+  </si>
+  <si>
+    <t>dinosaurs</t>
+  </si>
+  <si>
+    <t>lived</t>
+  </si>
+  <si>
+    <t>tells us</t>
+  </si>
+  <si>
+    <t>tracks</t>
+  </si>
+  <si>
+    <t>fossilized</t>
+  </si>
+  <si>
+    <t>remains</t>
+  </si>
+  <si>
+    <t>buried</t>
+  </si>
+  <si>
+    <t>preserved</t>
+  </si>
+  <si>
+    <t>shells</t>
+  </si>
+  <si>
+    <t>fossil finds</t>
+  </si>
+  <si>
+    <t>pieces of a puzzle</t>
+  </si>
+  <si>
+    <t>find out</t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>researcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plays a major role </t>
+  </si>
+  <si>
+    <t>the bedrock</t>
+  </si>
+  <si>
+    <t>amber</t>
+  </si>
+  <si>
+    <t>resin</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>发生</t>
+  </si>
+  <si>
+    <t>分为</t>
+  </si>
+  <si>
+    <t>细胞</t>
+  </si>
+  <si>
+    <t>进化</t>
+  </si>
+  <si>
+    <t>恐龙</t>
+  </si>
+  <si>
+    <t>活了下来</t>
+  </si>
+  <si>
+    <t>告诉我们</t>
+  </si>
+  <si>
+    <t>足迹</t>
+  </si>
+  <si>
+    <t>化石</t>
+  </si>
+  <si>
+    <t>遗迹</t>
+  </si>
+  <si>
+    <t>被埋葬</t>
+  </si>
+  <si>
+    <t>保存下来的</t>
+  </si>
+  <si>
+    <t>贝壳</t>
+  </si>
+  <si>
+    <t>化石发现</t>
+  </si>
+  <si>
+    <t>改变</t>
+  </si>
+  <si>
+    <t>研究者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发挥重要作用 </t>
+  </si>
+  <si>
+    <t>基岩</t>
+  </si>
+  <si>
+    <t>琥珀</t>
+  </si>
+  <si>
+    <t>树脂</t>
+  </si>
+  <si>
+    <t>原始细胞</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>拼图的一部分</t>
+  </si>
+  <si>
+    <t>右边的</t>
+  </si>
+  <si>
+    <t>existed, there was</t>
+  </si>
+  <si>
+    <t>Vulkan</t>
+  </si>
+  <si>
+    <t>utbrott</t>
+  </si>
+  <si>
+    <t>före</t>
+  </si>
+  <si>
+    <t>karg</t>
+  </si>
+  <si>
+    <t>syre</t>
+  </si>
+  <si>
+    <t>överallt</t>
+  </si>
+  <si>
+    <t>kastad</t>
+  </si>
+  <si>
+    <t>magma</t>
+  </si>
+  <si>
+    <t>Glödande</t>
+  </si>
+  <si>
+    <t>lava</t>
+  </si>
+  <si>
+    <t>flöt</t>
+  </si>
+  <si>
+    <t>ner</t>
+  </si>
+  <si>
+    <t>Åskväder</t>
+  </si>
+  <si>
+    <t>tycktes</t>
+  </si>
+  <si>
+    <t>blixtar</t>
+  </si>
+  <si>
+    <t>vräkte</t>
+  </si>
+  <si>
+    <t>häftiga</t>
+  </si>
+  <si>
+    <t>skyfall</t>
+  </si>
+  <si>
+    <t>tror</t>
+  </si>
+  <si>
+    <t>slog</t>
+  </si>
+  <si>
+    <t>volcano</t>
+  </si>
+  <si>
+    <t>eruption</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>barren</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>everywhere</t>
+  </si>
+  <si>
+    <t>Glowing</t>
+  </si>
+  <si>
+    <t>flowed</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>lightning bolts</t>
+  </si>
+  <si>
+    <t>seemed to</t>
+  </si>
+  <si>
+    <t>rumbled</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>喷发</t>
+  </si>
+  <si>
+    <t>之前</t>
+  </si>
+  <si>
+    <t>氧气</t>
+  </si>
+  <si>
+    <t>到处都是</t>
+  </si>
+  <si>
+    <t>废弃的</t>
+  </si>
+  <si>
+    <t>岩浆</t>
+  </si>
+  <si>
+    <t>发光的</t>
+  </si>
+  <si>
+    <t>熔岩</t>
+  </si>
+  <si>
+    <t>流淌</t>
+  </si>
+  <si>
+    <t>下来</t>
+  </si>
+  <si>
+    <t>闪电</t>
+  </si>
+  <si>
+    <t>雷暴</t>
+  </si>
+  <si>
+    <t>似乎</t>
+  </si>
+  <si>
+    <t>隆隆作响</t>
+  </si>
+  <si>
+    <t>大雨</t>
+  </si>
+  <si>
+    <t>暴雨</t>
+  </si>
+  <si>
+    <t>想</t>
+  </si>
+  <si>
+    <t>击中</t>
+  </si>
+  <si>
+    <t>cellerna</t>
+  </si>
+  <si>
+    <t>the cells</t>
+  </si>
+  <si>
+    <t>fick</t>
+  </si>
+  <si>
+    <t>reagera</t>
+  </si>
+  <si>
+    <t>Ur</t>
+  </si>
+  <si>
+    <t>småningom</t>
+  </si>
+  <si>
+    <t>levande</t>
+  </si>
+  <si>
+    <t>forskarna</t>
+  </si>
+  <si>
+    <t>Ungefär</t>
+  </si>
+  <si>
+    <t>Bakterierna</t>
+  </si>
+  <si>
+    <t>cyanobakterier</t>
+  </si>
+  <si>
+    <t>enkla</t>
+  </si>
+  <si>
+    <t>organismer</t>
+  </si>
+  <si>
+    <t>färgämnet</t>
+  </si>
+  <si>
+    <t>klorofyll</t>
+  </si>
+  <si>
+    <t>omvandla</t>
+  </si>
+  <si>
+    <t>koldioxid</t>
+  </si>
+  <si>
+    <t>druvsocker</t>
+  </si>
+  <si>
+    <t>fotosyntesen</t>
+  </si>
+  <si>
+    <t>förutsättningen</t>
+  </si>
+  <si>
+    <t>komplicerade</t>
+  </si>
+  <si>
+    <t>algblomning</t>
+  </si>
+  <si>
+    <t>synliga</t>
+  </si>
+  <si>
+    <t>grumligt</t>
+  </si>
+  <si>
+    <t>thunderstorms</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>torrential rain</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>react</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>the researchers</t>
+  </si>
+  <si>
+    <t>Approximately</t>
+  </si>
+  <si>
+    <t>The bacteria</t>
+  </si>
+  <si>
+    <t>cyanobacteria</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>organisms</t>
+  </si>
+  <si>
+    <t>the dye</t>
+  </si>
+  <si>
+    <t>chlorophyll</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>carbon dioxide</t>
+  </si>
+  <si>
+    <t>grape sugar</t>
+  </si>
+  <si>
+    <t>photosynthesis</t>
+  </si>
+  <si>
+    <t>prerequisite</t>
+  </si>
+  <si>
+    <t>complicated</t>
+  </si>
+  <si>
+    <t>algal bloom</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>造成</t>
+  </si>
+  <si>
+    <t>反应</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>最终</t>
+  </si>
+  <si>
+    <t>研究人员</t>
+  </si>
+  <si>
+    <t>大约</t>
+  </si>
+  <si>
+    <t>蓝藻</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>着色剂</t>
+  </si>
+  <si>
+    <t>叶绿素</t>
+  </si>
+  <si>
+    <t>转化</t>
+  </si>
+  <si>
+    <t>二氧化碳</t>
+  </si>
+  <si>
+    <t>葡萄糖分</t>
+  </si>
+  <si>
+    <t>光合作用</t>
+  </si>
+  <si>
+    <t>前提</t>
+  </si>
+  <si>
+    <t>藻类繁殖</t>
+  </si>
+  <si>
+    <t>可见</t>
+  </si>
+  <si>
+    <t>浑浊</t>
+  </si>
+  <si>
+    <t>贫瘠的</t>
+  </si>
+  <si>
+    <t>活的</t>
+  </si>
+  <si>
+    <t>简单的</t>
+  </si>
+  <si>
+    <t>复杂的</t>
   </si>
 </sst>
 </file>
@@ -2510,6 +3697,488 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5084A4-ADD3-4942-8166-446E24600D98}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B6" t="s">
+        <v>771</v>
+      </c>
+      <c r="C6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>752</v>
+      </c>
+      <c r="B7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>754</v>
+      </c>
+      <c r="B9" t="s">
+        <v>772</v>
+      </c>
+      <c r="C9" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>755</v>
+      </c>
+      <c r="B10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B11" t="s">
+        <v>773</v>
+      </c>
+      <c r="C11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>757</v>
+      </c>
+      <c r="B12" t="s">
+        <v>774</v>
+      </c>
+      <c r="C12" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>760</v>
+      </c>
+      <c r="B13" t="s">
+        <v>775</v>
+      </c>
+      <c r="C13" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>758</v>
+      </c>
+      <c r="B14" t="s">
+        <v>822</v>
+      </c>
+      <c r="C14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>759</v>
+      </c>
+      <c r="B15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C15" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>761</v>
+      </c>
+      <c r="B16" t="s">
+        <v>777</v>
+      </c>
+      <c r="C16" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>762</v>
+      </c>
+      <c r="B17" t="s">
+        <v>823</v>
+      </c>
+      <c r="C17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>763</v>
+      </c>
+      <c r="B18" t="s">
+        <v>824</v>
+      </c>
+      <c r="C18" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>764</v>
+      </c>
+      <c r="B19" t="s">
+        <v>778</v>
+      </c>
+      <c r="C19" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>765</v>
+      </c>
+      <c r="B20" t="s">
+        <v>514</v>
+      </c>
+      <c r="C20" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>800</v>
+      </c>
+      <c r="B21" t="s">
+        <v>825</v>
+      </c>
+      <c r="C21" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>801</v>
+      </c>
+      <c r="B22" t="s">
+        <v>826</v>
+      </c>
+      <c r="C22" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>802</v>
+      </c>
+      <c r="B23" t="s">
+        <v>827</v>
+      </c>
+      <c r="C23" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>803</v>
+      </c>
+      <c r="B24" t="s">
+        <v>828</v>
+      </c>
+      <c r="C24" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>804</v>
+      </c>
+      <c r="B25" t="s">
+        <v>829</v>
+      </c>
+      <c r="C25" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>805</v>
+      </c>
+      <c r="B26" t="s">
+        <v>830</v>
+      </c>
+      <c r="C26" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>806</v>
+      </c>
+      <c r="B27" t="s">
+        <v>831</v>
+      </c>
+      <c r="C27" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>807</v>
+      </c>
+      <c r="B28" t="s">
+        <v>832</v>
+      </c>
+      <c r="C28" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>808</v>
+      </c>
+      <c r="B29" t="s">
+        <v>833</v>
+      </c>
+      <c r="C29" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>809</v>
+      </c>
+      <c r="B30" t="s">
+        <v>834</v>
+      </c>
+      <c r="C30" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>810</v>
+      </c>
+      <c r="B31" t="s">
+        <v>835</v>
+      </c>
+      <c r="C31" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>811</v>
+      </c>
+      <c r="B32" t="s">
+        <v>836</v>
+      </c>
+      <c r="C32" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>812</v>
+      </c>
+      <c r="B33" t="s">
+        <v>837</v>
+      </c>
+      <c r="C33" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>813</v>
+      </c>
+      <c r="B34" t="s">
+        <v>838</v>
+      </c>
+      <c r="C34" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>814</v>
+      </c>
+      <c r="B35" t="s">
+        <v>839</v>
+      </c>
+      <c r="C35" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>815</v>
+      </c>
+      <c r="B36" t="s">
+        <v>840</v>
+      </c>
+      <c r="C36" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>816</v>
+      </c>
+      <c r="B37" t="s">
+        <v>841</v>
+      </c>
+      <c r="C37" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>817</v>
+      </c>
+      <c r="B38" t="s">
+        <v>842</v>
+      </c>
+      <c r="C38" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>818</v>
+      </c>
+      <c r="B39" t="s">
+        <v>843</v>
+      </c>
+      <c r="C39" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>819</v>
+      </c>
+      <c r="B40" t="s">
+        <v>844</v>
+      </c>
+      <c r="C40" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>820</v>
+      </c>
+      <c r="B41" t="s">
+        <v>845</v>
+      </c>
+      <c r="C41" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>821</v>
+      </c>
+      <c r="B42" t="s">
+        <v>846</v>
+      </c>
+      <c r="C42" t="s">
+        <v>864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C91FA-1948-4AB4-8761-7624062EA192}">
   <dimension ref="A1:C34"/>
@@ -2911,7 +4580,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3301,13 +4970,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6B5CA-8D95-4FC5-9AA8-51D2CA80169F}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
@@ -3766,4 +5435,1173 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA39ED91-A9B8-4364-9633-8B78B5545698}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B13" t="s">
+        <v>507</v>
+      </c>
+      <c r="C13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" t="s">
+        <v>510</v>
+      </c>
+      <c r="C17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>490</v>
+      </c>
+      <c r="B18" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>491</v>
+      </c>
+      <c r="B19" t="s">
+        <v>512</v>
+      </c>
+      <c r="C19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>492</v>
+      </c>
+      <c r="B20" t="s">
+        <v>513</v>
+      </c>
+      <c r="C20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>493</v>
+      </c>
+      <c r="B21" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>494</v>
+      </c>
+      <c r="B22" t="s">
+        <v>514</v>
+      </c>
+      <c r="C22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>495</v>
+      </c>
+      <c r="B23" t="s">
+        <v>515</v>
+      </c>
+      <c r="C23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>496</v>
+      </c>
+      <c r="B24" t="s">
+        <v>516</v>
+      </c>
+      <c r="C24" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>497</v>
+      </c>
+      <c r="B25" t="s">
+        <v>514</v>
+      </c>
+      <c r="C25" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C055712A-3E8A-475E-856A-0A06E2B1B743}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B9" t="s">
+        <v>574</v>
+      </c>
+      <c r="C9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>553</v>
+      </c>
+      <c r="B13" t="s">
+        <v>578</v>
+      </c>
+      <c r="C13" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C15" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>556</v>
+      </c>
+      <c r="B16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>557</v>
+      </c>
+      <c r="B17" t="s">
+        <v>582</v>
+      </c>
+      <c r="C17" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B18" t="s">
+        <v>583</v>
+      </c>
+      <c r="C18" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>559</v>
+      </c>
+      <c r="B20" t="s">
+        <v>584</v>
+      </c>
+      <c r="C20" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>560</v>
+      </c>
+      <c r="B21" t="s">
+        <v>585</v>
+      </c>
+      <c r="C21" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>561</v>
+      </c>
+      <c r="B22" t="s">
+        <v>586</v>
+      </c>
+      <c r="C22" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>562</v>
+      </c>
+      <c r="B23" t="s">
+        <v>587</v>
+      </c>
+      <c r="C23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>563</v>
+      </c>
+      <c r="B24" t="s">
+        <v>588</v>
+      </c>
+      <c r="C24" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>564</v>
+      </c>
+      <c r="B25" t="s">
+        <v>589</v>
+      </c>
+      <c r="C25" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26" t="s">
+        <v>590</v>
+      </c>
+      <c r="C26" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>565</v>
+      </c>
+      <c r="B27" t="s">
+        <v>591</v>
+      </c>
+      <c r="C27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AA730E-943A-4319-B07E-2B95C6DDA679}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C9" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C10" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>625</v>
+      </c>
+      <c r="B12" t="s">
+        <v>643</v>
+      </c>
+      <c r="C12" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B13" t="s">
+        <v>644</v>
+      </c>
+      <c r="C13" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>627</v>
+      </c>
+      <c r="B14" t="s">
+        <v>645</v>
+      </c>
+      <c r="C14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>628</v>
+      </c>
+      <c r="B15" t="s">
+        <v>646</v>
+      </c>
+      <c r="C15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B16" t="s">
+        <v>647</v>
+      </c>
+      <c r="C16" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>630</v>
+      </c>
+      <c r="B17" t="s">
+        <v>648</v>
+      </c>
+      <c r="C17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>631</v>
+      </c>
+      <c r="B18" t="s">
+        <v>649</v>
+      </c>
+      <c r="C18" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>632</v>
+      </c>
+      <c r="B19" t="s">
+        <v>650</v>
+      </c>
+      <c r="C19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>633</v>
+      </c>
+      <c r="B20" t="s">
+        <v>651</v>
+      </c>
+      <c r="C20" t="s">
+        <v>668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4FD4AB-72C6-4008-B11F-B2E3CD07A640}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B5" t="s">
+        <v>745</v>
+      </c>
+      <c r="C5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>678</v>
+      </c>
+      <c r="B7" t="s">
+        <v>702</v>
+      </c>
+      <c r="C7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B9" t="s">
+        <v>704</v>
+      </c>
+      <c r="C9" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>682</v>
+      </c>
+      <c r="B11" t="s">
+        <v>706</v>
+      </c>
+      <c r="C11" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>683</v>
+      </c>
+      <c r="B12" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>684</v>
+      </c>
+      <c r="B13" t="s">
+        <v>708</v>
+      </c>
+      <c r="C13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>685</v>
+      </c>
+      <c r="B14" t="s">
+        <v>709</v>
+      </c>
+      <c r="C14" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>686</v>
+      </c>
+      <c r="B15" t="s">
+        <v>710</v>
+      </c>
+      <c r="C15" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>687</v>
+      </c>
+      <c r="B16" t="s">
+        <v>711</v>
+      </c>
+      <c r="C16" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>688</v>
+      </c>
+      <c r="B17" t="s">
+        <v>706</v>
+      </c>
+      <c r="C17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B18" t="s">
+        <v>712</v>
+      </c>
+      <c r="C18" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>690</v>
+      </c>
+      <c r="B19" t="s">
+        <v>713</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B21" t="s">
+        <v>714</v>
+      </c>
+      <c r="C21" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B22" t="s">
+        <v>715</v>
+      </c>
+      <c r="C22" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>693</v>
+      </c>
+      <c r="B23" t="s">
+        <v>716</v>
+      </c>
+      <c r="C23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>694</v>
+      </c>
+      <c r="B24" t="s">
+        <v>717</v>
+      </c>
+      <c r="C24" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>695</v>
+      </c>
+      <c r="B25" t="s">
+        <v>718</v>
+      </c>
+      <c r="C25" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>696</v>
+      </c>
+      <c r="B26" t="s">
+        <v>719</v>
+      </c>
+      <c r="C26" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>697</v>
+      </c>
+      <c r="B27" t="s">
+        <v>720</v>
+      </c>
+      <c r="C27" t="s">
+        <v>744</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NO 6/words.xlsx
+++ b/NO 6/words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\NO 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41058C6-DB62-499A-8174-DD0FD892B7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B048AC95-6BB8-4A22-AA01-0A402FC35E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="40" sheetId="8" r:id="rId8"/>
     <sheet name="42" sheetId="9" r:id="rId9"/>
     <sheet name="43" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="1011">
   <si>
     <t>färdas</t>
   </si>
@@ -2641,6 +2642,432 @@
   </si>
   <si>
     <t>复杂的</t>
+  </si>
+  <si>
+    <t>urcellerna</t>
+  </si>
+  <si>
+    <t>primordial cells</t>
+  </si>
+  <si>
+    <t>alger</t>
+  </si>
+  <si>
+    <t>algae</t>
+  </si>
+  <si>
+    <t>藻类</t>
+  </si>
+  <si>
+    <t>bakterier</t>
+  </si>
+  <si>
+    <t>producerades</t>
+  </si>
+  <si>
+    <t>was being produced</t>
+  </si>
+  <si>
+    <t>被产生</t>
+  </si>
+  <si>
+    <t>saknade</t>
+  </si>
+  <si>
+    <t>lacked</t>
+  </si>
+  <si>
+    <t>缺乏</t>
+  </si>
+  <si>
+    <t>gjorde</t>
+  </si>
+  <si>
+    <t>did, made</t>
+  </si>
+  <si>
+    <t>egentligen</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>实际上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kom på så sätt åt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> thus accessed </t>
+  </si>
+  <si>
+    <t>从而获得了</t>
+  </si>
+  <si>
+    <t>märkliga</t>
+  </si>
+  <si>
+    <t>strange</t>
+  </si>
+  <si>
+    <t>奇特的</t>
+  </si>
+  <si>
+    <t>toffeldjuret</t>
+  </si>
+  <si>
+    <t>Paramecium</t>
+  </si>
+  <si>
+    <t>草履虫</t>
+  </si>
+  <si>
+    <t>vifta</t>
+  </si>
+  <si>
+    <t>waving</t>
+  </si>
+  <si>
+    <t>挥动</t>
+  </si>
+  <si>
+    <t>trådar</t>
+  </si>
+  <si>
+    <t>threads</t>
+  </si>
+  <si>
+    <t>cilier</t>
+  </si>
+  <si>
+    <t>cilia</t>
+  </si>
+  <si>
+    <t>纤毛</t>
+  </si>
+  <si>
+    <t>spjälkat</t>
+  </si>
+  <si>
+    <t>digested</t>
+  </si>
+  <si>
+    <t>消化</t>
+  </si>
+  <si>
+    <t>släpper</t>
+  </si>
+  <si>
+    <t>releases</t>
+  </si>
+  <si>
+    <t>释放</t>
+  </si>
+  <si>
+    <t>försvara</t>
+  </si>
+  <si>
+    <t>defend</t>
+  </si>
+  <si>
+    <t>skjuta</t>
+  </si>
+  <si>
+    <t>shooting</t>
+  </si>
+  <si>
+    <t>射</t>
+  </si>
+  <si>
+    <t>hotar</t>
+  </si>
+  <si>
+    <t>threatens</t>
+  </si>
+  <si>
+    <t>威胁</t>
+  </si>
+  <si>
+    <t>föröka</t>
+  </si>
+  <si>
+    <t>reproduce</t>
+  </si>
+  <si>
+    <t>繁殖</t>
+  </si>
+  <si>
+    <t>mitten</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>一半</t>
+  </si>
+  <si>
+    <t>para</t>
+  </si>
+  <si>
+    <t>mate</t>
+  </si>
+  <si>
+    <t>交配</t>
+  </si>
+  <si>
+    <t>Svampdjur</t>
+  </si>
+  <si>
+    <t>Fungi</t>
+  </si>
+  <si>
+    <t>菌类动物</t>
+  </si>
+  <si>
+    <t>cnidarians</t>
+  </si>
+  <si>
+    <t>刺胞动物</t>
+  </si>
+  <si>
+    <t>tillverka</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>制造</t>
+  </si>
+  <si>
+    <t>enkelt</t>
+  </si>
+  <si>
+    <t>tidigt</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>早期</t>
+  </si>
+  <si>
+    <t>uppbyggda</t>
+  </si>
+  <si>
+    <t>built up</t>
+  </si>
+  <si>
+    <t>逐渐形成</t>
+  </si>
+  <si>
+    <t>filtrerade</t>
+  </si>
+  <si>
+    <t>filtered</t>
+  </si>
+  <si>
+    <t>过滤</t>
+  </si>
+  <si>
+    <t>vapen</t>
+  </si>
+  <si>
+    <t>weapons</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>jaga</t>
+  </si>
+  <si>
+    <t>hunt</t>
+  </si>
+  <si>
+    <t>狩猎</t>
+  </si>
+  <si>
+    <t>giftpilar</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>毒镖</t>
+  </si>
+  <si>
+    <t>poison arrow</t>
+  </si>
+  <si>
+    <t>sköts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were shot </t>
+  </si>
+  <si>
+    <t>被射向</t>
+  </si>
+  <si>
+    <t>bytet</t>
+  </si>
+  <si>
+    <t>prey</t>
+  </si>
+  <si>
+    <t>猎物</t>
+  </si>
+  <si>
+    <t>träffades</t>
+  </si>
+  <si>
+    <t>were met</t>
+  </si>
+  <si>
+    <t>被击中的</t>
+  </si>
+  <si>
+    <t>förlamat</t>
+  </si>
+  <si>
+    <t>paralyzed</t>
+  </si>
+  <si>
+    <t>瘫痪</t>
+  </si>
+  <si>
+    <t>försvar</t>
+  </si>
+  <si>
+    <t>defense</t>
+  </si>
+  <si>
+    <t>保护(名词)</t>
+  </si>
+  <si>
+    <t>保护(动词)</t>
+  </si>
+  <si>
+    <t>anfallande</t>
+  </si>
+  <si>
+    <t>attacking</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>tallrikar</t>
+  </si>
+  <si>
+    <t>plates</t>
+  </si>
+  <si>
+    <t>盘子</t>
+  </si>
+  <si>
+    <t>ett slags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a kind of </t>
+  </si>
+  <si>
+    <t>一种</t>
+  </si>
+  <si>
+    <t>maneter</t>
+  </si>
+  <si>
+    <t>jellyfish</t>
+  </si>
+  <si>
+    <t>水母</t>
+  </si>
+  <si>
+    <t>tentakler</t>
+  </si>
+  <si>
+    <t>tentacles</t>
+  </si>
+  <si>
+    <t>触须</t>
+  </si>
+  <si>
+    <t>förmåga</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>能力</t>
+  </si>
+  <si>
+    <t>skelett</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>骨架</t>
+  </si>
+  <si>
+    <t>kalk</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>石灰</t>
+  </si>
+  <si>
+    <t>yttre</t>
+  </si>
+  <si>
+    <t>外部的</t>
+  </si>
+  <si>
+    <t>skyddade</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>被保护得</t>
+  </si>
+  <si>
+    <t>korall</t>
+  </si>
+  <si>
+    <t>coral</t>
+  </si>
+  <si>
+    <t>珊瑚</t>
+  </si>
+  <si>
+    <t>korallrev</t>
+  </si>
+  <si>
+    <t>coral reefs</t>
+  </si>
+  <si>
+    <t>珊瑚礁</t>
+  </si>
+  <si>
+    <t>fungerar</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>dåtidens</t>
+  </si>
+  <si>
+    <t>of that time</t>
+  </si>
+  <si>
+    <t>那时的. 过去的.</t>
   </si>
 </sst>
 </file>
@@ -2990,15 +3417,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.89453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.20703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3009,7 +3436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3020,7 +3447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3031,7 +3458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3042,7 +3469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3053,7 +3480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3064,7 +3491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3075,7 +3502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3086,7 +3513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3097,7 +3524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3108,7 +3535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3119,7 +3546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3130,7 +3557,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3141,7 +3568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3152,7 +3579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3163,7 +3590,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3174,7 +3601,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3185,7 +3612,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3196,7 +3623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3207,7 +3634,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -3218,7 +3645,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -3229,7 +3656,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -3240,7 +3667,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -3251,7 +3678,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -3262,7 +3689,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -3273,7 +3700,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -3284,7 +3711,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -3295,7 +3722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -3306,7 +3733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -3317,7 +3744,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -3328,7 +3755,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -3339,7 +3766,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -3350,7 +3777,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -3361,7 +3788,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -3372,7 +3799,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -3383,7 +3810,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>99</v>
       </c>
@@ -3394,7 +3821,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
@@ -3405,7 +3832,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>101</v>
       </c>
@@ -3416,7 +3843,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -3427,7 +3854,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>103</v>
       </c>
@@ -3438,7 +3865,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>104</v>
       </c>
@@ -3449,7 +3876,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>105</v>
       </c>
@@ -3460,7 +3887,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>106</v>
       </c>
@@ -3471,7 +3898,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
@@ -3482,7 +3909,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -3493,7 +3920,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -3504,7 +3931,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>109</v>
       </c>
@@ -3515,7 +3942,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>110</v>
       </c>
@@ -3526,7 +3953,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
@@ -3537,7 +3964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>112</v>
       </c>
@@ -3548,7 +3975,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
@@ -3559,7 +3986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
@@ -3570,7 +3997,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>145</v>
       </c>
@@ -3581,7 +4008,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>146</v>
       </c>
@@ -3592,7 +4019,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>147</v>
       </c>
@@ -3603,7 +4030,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>148</v>
       </c>
@@ -3614,7 +4041,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>149</v>
       </c>
@@ -3625,7 +4052,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>150</v>
       </c>
@@ -3636,7 +4063,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>151</v>
       </c>
@@ -3647,7 +4074,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>152</v>
       </c>
@@ -3658,7 +4085,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>153</v>
       </c>
@@ -3669,7 +4096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>154</v>
       </c>
@@ -3680,7 +4107,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>155</v>
       </c>
@@ -3701,18 +4128,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5084A4-ADD3-4942-8166-446E24600D98}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1015625" customWidth="1"/>
+    <col min="2" max="2" width="16.5234375" customWidth="1"/>
+    <col min="3" max="3" width="18.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -3723,7 +4150,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>747</v>
       </c>
@@ -3734,7 +4161,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>748</v>
       </c>
@@ -3745,7 +4172,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>749</v>
       </c>
@@ -3756,7 +4183,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>750</v>
       </c>
@@ -3767,7 +4194,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>751</v>
       </c>
@@ -3778,7 +4205,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>752</v>
       </c>
@@ -3789,7 +4216,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>753</v>
       </c>
@@ -3800,7 +4227,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>754</v>
       </c>
@@ -3811,7 +4238,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>755</v>
       </c>
@@ -3822,7 +4249,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>756</v>
       </c>
@@ -3833,7 +4260,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>757</v>
       </c>
@@ -3844,7 +4271,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>760</v>
       </c>
@@ -3855,7 +4282,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>758</v>
       </c>
@@ -3866,7 +4293,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>759</v>
       </c>
@@ -3877,7 +4304,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>761</v>
       </c>
@@ -3888,7 +4315,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>762</v>
       </c>
@@ -3899,7 +4326,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>763</v>
       </c>
@@ -3910,7 +4337,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>764</v>
       </c>
@@ -3921,7 +4348,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>765</v>
       </c>
@@ -3932,7 +4359,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>800</v>
       </c>
@@ -3943,7 +4370,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>801</v>
       </c>
@@ -3954,7 +4381,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>802</v>
       </c>
@@ -3965,7 +4392,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>803</v>
       </c>
@@ -3976,7 +4403,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>804</v>
       </c>
@@ -3987,7 +4414,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>805</v>
       </c>
@@ -3998,7 +4425,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>806</v>
       </c>
@@ -4009,7 +4436,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>807</v>
       </c>
@@ -4020,7 +4447,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>808</v>
       </c>
@@ -4031,7 +4458,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>809</v>
       </c>
@@ -4042,7 +4469,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>810</v>
       </c>
@@ -4053,7 +4480,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>811</v>
       </c>
@@ -4064,7 +4491,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>812</v>
       </c>
@@ -4075,7 +4502,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>813</v>
       </c>
@@ -4086,7 +4513,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>814</v>
       </c>
@@ -4097,7 +4524,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>815</v>
       </c>
@@ -4108,7 +4535,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>816</v>
       </c>
@@ -4119,7 +4546,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>817</v>
       </c>
@@ -4130,7 +4557,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>818</v>
       </c>
@@ -4141,7 +4568,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>819</v>
       </c>
@@ -4152,7 +4579,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>820</v>
       </c>
@@ -4163,7 +4590,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>821</v>
       </c>
@@ -4172,6 +4599,625 @@
       </c>
       <c r="C42" t="s">
         <v>864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346E30D6-6A9B-444E-988D-CFC351CA55F7}">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.1015625" customWidth="1"/>
+    <col min="2" max="2" width="18.89453125" customWidth="1"/>
+    <col min="3" max="3" width="10.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>875</v>
+      </c>
+      <c r="B4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B5" t="s">
+        <v>833</v>
+      </c>
+      <c r="C5" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>878</v>
+      </c>
+      <c r="B6" t="s">
+        <v>879</v>
+      </c>
+      <c r="C6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>812</v>
+      </c>
+      <c r="B7" t="s">
+        <v>837</v>
+      </c>
+      <c r="C7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>881</v>
+      </c>
+      <c r="B8" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>883</v>
+      </c>
+      <c r="B9" t="s">
+        <v>884</v>
+      </c>
+      <c r="C9" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>886</v>
+      </c>
+      <c r="B10" t="s">
+        <v>887</v>
+      </c>
+      <c r="C10" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>889</v>
+      </c>
+      <c r="B11" t="s">
+        <v>890</v>
+      </c>
+      <c r="C11" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>892</v>
+      </c>
+      <c r="B12" t="s">
+        <v>893</v>
+      </c>
+      <c r="C12" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>895</v>
+      </c>
+      <c r="B13" t="s">
+        <v>896</v>
+      </c>
+      <c r="C13" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>898</v>
+      </c>
+      <c r="B14" t="s">
+        <v>899</v>
+      </c>
+      <c r="C14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>900</v>
+      </c>
+      <c r="B15" t="s">
+        <v>901</v>
+      </c>
+      <c r="C15" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>903</v>
+      </c>
+      <c r="B16" t="s">
+        <v>904</v>
+      </c>
+      <c r="C16" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>906</v>
+      </c>
+      <c r="B17" t="s">
+        <v>907</v>
+      </c>
+      <c r="C17" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>967</v>
+      </c>
+      <c r="B18" t="s">
+        <v>968</v>
+      </c>
+      <c r="C18" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>909</v>
+      </c>
+      <c r="B19" t="s">
+        <v>910</v>
+      </c>
+      <c r="C19" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>955</v>
+      </c>
+      <c r="B20" t="s">
+        <v>956</v>
+      </c>
+      <c r="C20" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>911</v>
+      </c>
+      <c r="B21" t="s">
+        <v>912</v>
+      </c>
+      <c r="C21" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>914</v>
+      </c>
+      <c r="B22" t="s">
+        <v>915</v>
+      </c>
+      <c r="C22" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>917</v>
+      </c>
+      <c r="B23" t="s">
+        <v>918</v>
+      </c>
+      <c r="C23" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>920</v>
+      </c>
+      <c r="B24" t="s">
+        <v>921</v>
+      </c>
+      <c r="C24" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>923</v>
+      </c>
+      <c r="B25" t="s">
+        <v>924</v>
+      </c>
+      <c r="C25" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>926</v>
+      </c>
+      <c r="B26" t="s">
+        <v>927</v>
+      </c>
+      <c r="C26" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>617</v>
+      </c>
+      <c r="B27" t="s">
+        <v>929</v>
+      </c>
+      <c r="C27" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>816</v>
+      </c>
+      <c r="B28" t="s">
+        <v>841</v>
+      </c>
+      <c r="C28" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>931</v>
+      </c>
+      <c r="B29" t="s">
+        <v>932</v>
+      </c>
+      <c r="C29" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>934</v>
+      </c>
+      <c r="B30" t="s">
+        <v>834</v>
+      </c>
+      <c r="C30" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>938</v>
+      </c>
+      <c r="B31" t="s">
+        <v>939</v>
+      </c>
+      <c r="C31" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>935</v>
+      </c>
+      <c r="B32" t="s">
+        <v>936</v>
+      </c>
+      <c r="C32" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>941</v>
+      </c>
+      <c r="B33" t="s">
+        <v>942</v>
+      </c>
+      <c r="C33" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>944</v>
+      </c>
+      <c r="B34" t="s">
+        <v>945</v>
+      </c>
+      <c r="C34" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>947</v>
+      </c>
+      <c r="B35" t="s">
+        <v>948</v>
+      </c>
+      <c r="C35" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>951</v>
+      </c>
+      <c r="B36" t="s">
+        <v>952</v>
+      </c>
+      <c r="C36" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>950</v>
+      </c>
+      <c r="B37" t="s">
+        <v>954</v>
+      </c>
+      <c r="C37" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>290</v>
+      </c>
+      <c r="B38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>958</v>
+      </c>
+      <c r="B39" t="s">
+        <v>959</v>
+      </c>
+      <c r="C39" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>961</v>
+      </c>
+      <c r="B40" t="s">
+        <v>962</v>
+      </c>
+      <c r="C40" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>964</v>
+      </c>
+      <c r="B41" t="s">
+        <v>965</v>
+      </c>
+      <c r="C41" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>971</v>
+      </c>
+      <c r="B42" t="s">
+        <v>972</v>
+      </c>
+      <c r="C42" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>974</v>
+      </c>
+      <c r="B43" t="s">
+        <v>975</v>
+      </c>
+      <c r="C43" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>977</v>
+      </c>
+      <c r="B44" t="s">
+        <v>978</v>
+      </c>
+      <c r="C44" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>980</v>
+      </c>
+      <c r="B45" t="s">
+        <v>981</v>
+      </c>
+      <c r="C45" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>983</v>
+      </c>
+      <c r="B46" t="s">
+        <v>984</v>
+      </c>
+      <c r="C46" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>986</v>
+      </c>
+      <c r="B47" t="s">
+        <v>987</v>
+      </c>
+      <c r="C47" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>989</v>
+      </c>
+      <c r="B48" t="s">
+        <v>990</v>
+      </c>
+      <c r="C48" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>992</v>
+      </c>
+      <c r="B49" t="s">
+        <v>993</v>
+      </c>
+      <c r="C49" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>995</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>997</v>
+      </c>
+      <c r="B51" t="s">
+        <v>998</v>
+      </c>
+      <c r="C51" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -4187,15 +5233,15 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="22.20703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.68359375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -4206,7 +5252,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>181</v>
       </c>
@@ -4217,7 +5263,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>182</v>
       </c>
@@ -4228,7 +5274,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>183</v>
       </c>
@@ -4239,7 +5285,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>184</v>
       </c>
@@ -4250,7 +5296,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>185</v>
       </c>
@@ -4261,7 +5307,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>186</v>
       </c>
@@ -4272,7 +5318,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>187</v>
       </c>
@@ -4283,7 +5329,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>188</v>
       </c>
@@ -4294,7 +5340,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>189</v>
       </c>
@@ -4305,7 +5351,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>190</v>
       </c>
@@ -4316,7 +5362,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>191</v>
       </c>
@@ -4327,7 +5373,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>192</v>
       </c>
@@ -4338,7 +5384,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>193</v>
       </c>
@@ -4349,7 +5395,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>194</v>
       </c>
@@ -4360,7 +5406,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>195</v>
       </c>
@@ -4371,7 +5417,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>196</v>
       </c>
@@ -4382,7 +5428,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>197</v>
       </c>
@@ -4393,7 +5439,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>198</v>
       </c>
@@ -4404,7 +5450,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>199</v>
       </c>
@@ -4415,7 +5461,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
@@ -4426,7 +5472,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>201</v>
       </c>
@@ -4437,7 +5483,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>202</v>
       </c>
@@ -4448,7 +5494,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>203</v>
       </c>
@@ -4459,7 +5505,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>204</v>
       </c>
@@ -4470,7 +5516,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>205</v>
       </c>
@@ -4481,7 +5527,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>206</v>
       </c>
@@ -4492,7 +5538,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>207</v>
       </c>
@@ -4503,7 +5549,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>151</v>
       </c>
@@ -4514,7 +5560,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>208</v>
       </c>
@@ -4525,7 +5571,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>209</v>
       </c>
@@ -4536,7 +5582,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>210</v>
       </c>
@@ -4547,7 +5593,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>211</v>
       </c>
@@ -4558,7 +5604,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>212</v>
       </c>
@@ -4583,14 +5629,14 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.1015625" customWidth="1"/>
+    <col min="2" max="2" width="12.5234375" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>274</v>
       </c>
@@ -4601,7 +5647,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>275</v>
       </c>
@@ -4612,7 +5658,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -4623,7 +5669,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>276</v>
       </c>
@@ -4634,7 +5680,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>277</v>
       </c>
@@ -4645,7 +5691,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>278</v>
       </c>
@@ -4656,7 +5702,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>279</v>
       </c>
@@ -4667,7 +5713,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -4678,7 +5724,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>281</v>
       </c>
@@ -4689,7 +5735,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>282</v>
       </c>
@@ -4700,7 +5746,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>283</v>
       </c>
@@ -4711,7 +5757,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -4722,7 +5768,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -4733,7 +5779,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>286</v>
       </c>
@@ -4744,7 +5790,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>287</v>
       </c>
@@ -4755,7 +5801,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -4766,7 +5812,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>289</v>
       </c>
@@ -4777,7 +5823,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>290</v>
       </c>
@@ -4788,7 +5834,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>291</v>
       </c>
@@ -4812,13 +5858,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.89453125" customWidth="1"/>
+    <col min="2" max="2" width="13.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>325</v>
       </c>
@@ -4829,7 +5875,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>326</v>
       </c>
@@ -4840,7 +5886,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>327</v>
       </c>
@@ -4851,7 +5897,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>328</v>
       </c>
@@ -4862,7 +5908,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -4873,7 +5919,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>330</v>
       </c>
@@ -4884,7 +5930,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>331</v>
       </c>
@@ -4895,7 +5941,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -4906,7 +5952,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>333</v>
       </c>
@@ -4917,7 +5963,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>334</v>
       </c>
@@ -4928,7 +5974,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>335</v>
       </c>
@@ -4939,7 +5985,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>336</v>
       </c>
@@ -4950,7 +5996,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>337</v>
       </c>
@@ -4974,14 +6020,14 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7890625" customWidth="1"/>
+    <col min="2" max="2" width="21.68359375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>360</v>
       </c>
@@ -4992,7 +6038,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>374</v>
       </c>
@@ -5003,7 +6049,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>375</v>
       </c>
@@ -5014,7 +6060,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>376</v>
       </c>
@@ -5025,7 +6071,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>377</v>
       </c>
@@ -5036,7 +6082,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>378</v>
       </c>
@@ -5047,7 +6093,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>379</v>
       </c>
@@ -5058,7 +6104,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>380</v>
       </c>
@@ -5069,7 +6115,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>381</v>
       </c>
@@ -5080,7 +6126,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>382</v>
       </c>
@@ -5091,7 +6137,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>383</v>
       </c>
@@ -5102,7 +6148,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>384</v>
       </c>
@@ -5113,7 +6159,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>385</v>
       </c>
@@ -5124,7 +6170,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>386</v>
       </c>
@@ -5135,7 +6181,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>387</v>
       </c>
@@ -5146,7 +6192,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>388</v>
       </c>
@@ -5157,7 +6203,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5168,7 +6214,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>389</v>
       </c>
@@ -5179,7 +6225,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>390</v>
       </c>
@@ -5190,7 +6236,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>391</v>
       </c>
@@ -5201,7 +6247,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>392</v>
       </c>
@@ -5212,7 +6258,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>393</v>
       </c>
@@ -5223,7 +6269,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>394</v>
       </c>
@@ -5234,7 +6280,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>395</v>
       </c>
@@ -5245,7 +6291,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>396</v>
       </c>
@@ -5256,7 +6302,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>397</v>
       </c>
@@ -5267,7 +6313,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>398</v>
       </c>
@@ -5278,7 +6324,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>399</v>
       </c>
@@ -5289,7 +6335,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>400</v>
       </c>
@@ -5300,7 +6346,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>401</v>
       </c>
@@ -5311,7 +6357,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>402</v>
       </c>
@@ -5322,7 +6368,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>403</v>
       </c>
@@ -5333,7 +6379,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>404</v>
       </c>
@@ -5344,7 +6390,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>405</v>
       </c>
@@ -5355,7 +6401,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>406</v>
       </c>
@@ -5366,7 +6412,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>407</v>
       </c>
@@ -5377,7 +6423,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>408</v>
       </c>
@@ -5388,7 +6434,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>409</v>
       </c>
@@ -5399,7 +6445,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>410</v>
       </c>
@@ -5410,7 +6456,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>411</v>
       </c>
@@ -5421,7 +6467,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>412</v>
       </c>
@@ -5445,14 +6491,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.41796875" customWidth="1"/>
+    <col min="2" max="2" width="14.89453125" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>475</v>
       </c>
@@ -5463,7 +6509,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>476</v>
       </c>
@@ -5474,7 +6520,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>477</v>
       </c>
@@ -5485,7 +6531,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>478</v>
       </c>
@@ -5496,7 +6542,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -5507,7 +6553,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -5518,7 +6564,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>481</v>
       </c>
@@ -5529,7 +6575,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>482</v>
       </c>
@@ -5540,7 +6586,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>483</v>
       </c>
@@ -5551,7 +6597,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>410</v>
       </c>
@@ -5562,7 +6608,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>484</v>
       </c>
@@ -5573,7 +6619,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>485</v>
       </c>
@@ -5584,7 +6630,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>486</v>
       </c>
@@ -5595,7 +6641,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>487</v>
       </c>
@@ -5606,7 +6652,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>388</v>
       </c>
@@ -5617,7 +6663,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>488</v>
       </c>
@@ -5628,7 +6674,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>489</v>
       </c>
@@ -5639,7 +6685,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>490</v>
       </c>
@@ -5650,7 +6696,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>491</v>
       </c>
@@ -5661,7 +6707,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>492</v>
       </c>
@@ -5672,7 +6718,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>493</v>
       </c>
@@ -5683,7 +6729,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>494</v>
       </c>
@@ -5694,7 +6740,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>495</v>
       </c>
@@ -5705,7 +6751,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>496</v>
       </c>
@@ -5716,7 +6762,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>497</v>
       </c>
@@ -5740,14 +6786,14 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.89453125" customWidth="1"/>
+    <col min="2" max="2" width="14.89453125" customWidth="1"/>
+    <col min="3" max="3" width="14.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>542</v>
       </c>
@@ -5758,7 +6804,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>543</v>
       </c>
@@ -5769,7 +6815,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>544</v>
       </c>
@@ -5780,7 +6826,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>545</v>
       </c>
@@ -5791,7 +6837,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>546</v>
       </c>
@@ -5802,7 +6848,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>547</v>
       </c>
@@ -5813,7 +6859,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>541</v>
       </c>
@@ -5824,7 +6870,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>548</v>
       </c>
@@ -5835,7 +6881,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>549</v>
       </c>
@@ -5846,7 +6892,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>550</v>
       </c>
@@ -5857,7 +6903,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>551</v>
       </c>
@@ -5868,7 +6914,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>552</v>
       </c>
@@ -5879,7 +6925,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>553</v>
       </c>
@@ -5890,7 +6936,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>554</v>
       </c>
@@ -5901,7 +6947,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>555</v>
       </c>
@@ -5912,7 +6958,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>556</v>
       </c>
@@ -5923,7 +6969,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>557</v>
       </c>
@@ -5934,7 +6980,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>558</v>
       </c>
@@ -5945,7 +6991,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>390</v>
       </c>
@@ -5956,7 +7002,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>559</v>
       </c>
@@ -5967,7 +7013,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>560</v>
       </c>
@@ -5978,7 +7024,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>561</v>
       </c>
@@ -5989,7 +7035,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>562</v>
       </c>
@@ -6000,7 +7046,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>563</v>
       </c>
@@ -6011,7 +7057,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>564</v>
       </c>
@@ -6022,7 +7068,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -6033,7 +7079,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>565</v>
       </c>
@@ -6057,14 +7103,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.1015625" customWidth="1"/>
+    <col min="2" max="2" width="25.89453125" customWidth="1"/>
+    <col min="3" max="3" width="18.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>615</v>
       </c>
@@ -6075,7 +7121,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>616</v>
       </c>
@@ -6086,7 +7132,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>617</v>
       </c>
@@ -6097,7 +7143,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>618</v>
       </c>
@@ -6108,7 +7154,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>619</v>
       </c>
@@ -6119,7 +7165,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>620</v>
       </c>
@@ -6130,7 +7176,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>621</v>
       </c>
@@ -6141,7 +7187,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>622</v>
       </c>
@@ -6152,7 +7198,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>623</v>
       </c>
@@ -6163,7 +7209,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>624</v>
       </c>
@@ -6174,7 +7220,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6185,7 +7231,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>625</v>
       </c>
@@ -6196,7 +7242,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>626</v>
       </c>
@@ -6207,7 +7253,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>627</v>
       </c>
@@ -6218,7 +7264,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>628</v>
       </c>
@@ -6229,7 +7275,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>629</v>
       </c>
@@ -6240,7 +7286,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>630</v>
       </c>
@@ -6251,7 +7297,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>631</v>
       </c>
@@ -6262,7 +7308,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>632</v>
       </c>
@@ -6273,7 +7319,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>633</v>
       </c>
@@ -6297,14 +7343,14 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.20703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7890625" customWidth="1"/>
+    <col min="3" max="3" width="12.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>673</v>
       </c>
@@ -6315,7 +7361,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>674</v>
       </c>
@@ -6326,7 +7372,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>798</v>
       </c>
@@ -6337,7 +7383,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>675</v>
       </c>
@@ -6348,7 +7394,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>676</v>
       </c>
@@ -6359,7 +7405,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>677</v>
       </c>
@@ -6370,7 +7416,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>678</v>
       </c>
@@ -6381,7 +7427,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>679</v>
       </c>
@@ -6392,7 +7438,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>680</v>
       </c>
@@ -6403,7 +7449,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>681</v>
       </c>
@@ -6414,7 +7460,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>682</v>
       </c>
@@ -6425,7 +7471,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>683</v>
       </c>
@@ -6436,7 +7482,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>684</v>
       </c>
@@ -6447,7 +7493,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>685</v>
       </c>
@@ -6458,7 +7504,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>686</v>
       </c>
@@ -6469,7 +7515,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>687</v>
       </c>
@@ -6480,7 +7526,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>688</v>
       </c>
@@ -6491,7 +7537,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>689</v>
       </c>
@@ -6502,7 +7548,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>690</v>
       </c>
@@ -6513,7 +7559,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -6524,7 +7570,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>691</v>
       </c>
@@ -6535,7 +7581,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>692</v>
       </c>
@@ -6546,7 +7592,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>693</v>
       </c>
@@ -6557,7 +7603,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>694</v>
       </c>
@@ -6568,7 +7614,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>695</v>
       </c>
@@ -6579,7 +7625,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>696</v>
       </c>
@@ -6590,7 +7636,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>697</v>
       </c>

--- a/NO 6/words.xlsx
+++ b/NO 6/words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\NO 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B048AC95-6BB8-4A22-AA01-0A402FC35E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F77D770-9A33-42BD-8B6D-72F79C732232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,14 @@
     <sheet name="40" sheetId="8" r:id="rId8"/>
     <sheet name="42" sheetId="9" r:id="rId9"/>
     <sheet name="43" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
+    <sheet name="44" sheetId="11" r:id="rId11"/>
+    <sheet name="45" sheetId="12" r:id="rId12"/>
+    <sheet name="46" sheetId="13" r:id="rId13"/>
+    <sheet name="47" sheetId="14" r:id="rId14"/>
+    <sheet name="48" sheetId="16" r:id="rId15"/>
+    <sheet name="49" sheetId="17" r:id="rId16"/>
+    <sheet name="50" sheetId="18" r:id="rId17"/>
+    <sheet name="51" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="1709">
   <si>
     <t>färdas</t>
   </si>
@@ -3068,6 +3075,2100 @@
   </si>
   <si>
     <t>那时的. 过去的.</t>
+  </si>
+  <si>
+    <t>byggstenar</t>
+  </si>
+  <si>
+    <t>building blocks</t>
+  </si>
+  <si>
+    <t>基石</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>Bläckfiskar</t>
+  </si>
+  <si>
+    <t>Cephalopods</t>
+  </si>
+  <si>
+    <t>tillhör</t>
+  </si>
+  <si>
+    <t>头足纲动物</t>
+  </si>
+  <si>
+    <t>blötdjur</t>
+  </si>
+  <si>
+    <t>belong to</t>
+  </si>
+  <si>
+    <t>属于</t>
+  </si>
+  <si>
+    <t>mollusc</t>
+  </si>
+  <si>
+    <t>软体动物</t>
+  </si>
+  <si>
+    <t>skillnad</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>Till skillnad</t>
+  </si>
+  <si>
+    <t>unlike</t>
+  </si>
+  <si>
+    <t>与…不同</t>
+  </si>
+  <si>
+    <t>nutida</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>现代的</t>
+  </si>
+  <si>
+    <t>rör</t>
+  </si>
+  <si>
+    <t>tubes</t>
+  </si>
+  <si>
+    <t>管子</t>
+  </si>
+  <si>
+    <t>fångade</t>
+  </si>
+  <si>
+    <t>caught</t>
+  </si>
+  <si>
+    <t>抓住</t>
+  </si>
+  <si>
+    <t>sugkoppar</t>
+  </si>
+  <si>
+    <t>suction cups</t>
+  </si>
+  <si>
+    <t>吸盘</t>
+  </si>
+  <si>
+    <t>fara</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>危险</t>
+  </si>
+  <si>
+    <t>dra</t>
+  </si>
+  <si>
+    <t>drag, retreat</t>
+  </si>
+  <si>
+    <t>缩进</t>
+  </si>
+  <si>
+    <t>fiender</t>
+  </si>
+  <si>
+    <t>enemies</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>söka föda</t>
+  </si>
+  <si>
+    <t>forage</t>
+  </si>
+  <si>
+    <t>觅食</t>
+  </si>
+  <si>
+    <t>missing, lacking</t>
+  </si>
+  <si>
+    <t>缺少</t>
+  </si>
+  <si>
+    <t>uppätna</t>
+  </si>
+  <si>
+    <t>eaten</t>
+  </si>
+  <si>
+    <t>被吃掉</t>
+  </si>
+  <si>
+    <t>Kräftdjuren</t>
+  </si>
+  <si>
+    <t>Crustaceans</t>
+  </si>
+  <si>
+    <t>甲壳类动物</t>
+  </si>
+  <si>
+    <t>växer</t>
+  </si>
+  <si>
+    <t>grows</t>
+  </si>
+  <si>
+    <t>长大</t>
+  </si>
+  <si>
+    <t>trångt</t>
+  </si>
+  <si>
+    <t>crowded</t>
+  </si>
+  <si>
+    <t>拥挤的</t>
+  </si>
+  <si>
+    <t>spräcka</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>打破</t>
+  </si>
+  <si>
+    <t>krypa</t>
+  </si>
+  <si>
+    <t>爬行</t>
+  </si>
+  <si>
+    <t>crawl</t>
+  </si>
+  <si>
+    <t>arter</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>种类</t>
+  </si>
+  <si>
+    <t>broskfiskar</t>
+  </si>
+  <si>
+    <t>cartilaginous fish</t>
+  </si>
+  <si>
+    <t>软骨鱼</t>
+  </si>
+  <si>
+    <t>gjort av</t>
+  </si>
+  <si>
+    <t>made of</t>
+  </si>
+  <si>
+    <t>由…组成</t>
+  </si>
+  <si>
+    <t>ben</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>骨头</t>
+  </si>
+  <si>
+    <t>brosk</t>
+  </si>
+  <si>
+    <t>cartilage</t>
+  </si>
+  <si>
+    <t>软骨</t>
+  </si>
+  <si>
+    <t>mjukare</t>
+  </si>
+  <si>
+    <t>softer</t>
+  </si>
+  <si>
+    <t>更柔软的</t>
+  </si>
+  <si>
+    <t>käkar</t>
+  </si>
+  <si>
+    <t>jaws</t>
+  </si>
+  <si>
+    <t>下颌</t>
+  </si>
+  <si>
+    <t>suga</t>
+  </si>
+  <si>
+    <t>sucking</t>
+  </si>
+  <si>
+    <t>吸</t>
+  </si>
+  <si>
+    <t>bottenslammet</t>
+  </si>
+  <si>
+    <t>bottom mud</t>
+  </si>
+  <si>
+    <t>底泥</t>
+  </si>
+  <si>
+    <t>maskar</t>
+  </si>
+  <si>
+    <t>worms</t>
+  </si>
+  <si>
+    <t>蠕虫</t>
+  </si>
+  <si>
+    <t>kräftdjur</t>
+  </si>
+  <si>
+    <t>crustaceans</t>
+  </si>
+  <si>
+    <t>verkligen</t>
+  </si>
+  <si>
+    <t>actually, indeed</t>
+  </si>
+  <si>
+    <t>pansarhajen</t>
+  </si>
+  <si>
+    <t>armored shark</t>
+  </si>
+  <si>
+    <t>铠甲鲨</t>
+  </si>
+  <si>
+    <t>sönder</t>
+  </si>
+  <si>
+    <t>tear</t>
+  </si>
+  <si>
+    <t>slita</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>撕裂</t>
+  </si>
+  <si>
+    <t>一片</t>
+  </si>
+  <si>
+    <t>the prey</t>
+  </si>
+  <si>
+    <t>hajar</t>
+  </si>
+  <si>
+    <t>sharks</t>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+  </si>
+  <si>
+    <t>benplattor</t>
+  </si>
+  <si>
+    <t>bone plates</t>
+  </si>
+  <si>
+    <t>大骨板</t>
+  </si>
+  <si>
+    <t>fiskarter</t>
+  </si>
+  <si>
+    <t>fish species</t>
+  </si>
+  <si>
+    <t>鱼类</t>
+  </si>
+  <si>
+    <t>fenor</t>
+  </si>
+  <si>
+    <t>fins</t>
+  </si>
+  <si>
+    <t>鳍</t>
+  </si>
+  <si>
+    <t>andades</t>
+  </si>
+  <si>
+    <t>breathed</t>
+  </si>
+  <si>
+    <t>呼吸</t>
+  </si>
+  <si>
+    <t>gälar</t>
+  </si>
+  <si>
+    <t>gills</t>
+  </si>
+  <si>
+    <t>鳃</t>
+  </si>
+  <si>
+    <t>torkade ut</t>
+  </si>
+  <si>
+    <t>dried up</t>
+  </si>
+  <si>
+    <t>干涸</t>
+  </si>
+  <si>
+    <t>andas</t>
+  </si>
+  <si>
+    <t>breathe</t>
+  </si>
+  <si>
+    <t>呼吸(过去式)</t>
+  </si>
+  <si>
+    <t>奇怪的</t>
+  </si>
+  <si>
+    <t>skaft</t>
+  </si>
+  <si>
+    <t>shafts</t>
+  </si>
+  <si>
+    <t>杆部</t>
+  </si>
+  <si>
+    <t>kröp</t>
+  </si>
+  <si>
+    <t>crawled</t>
+  </si>
+  <si>
+    <t>爬</t>
+  </si>
+  <si>
+    <t>letade</t>
+  </si>
+  <si>
+    <t>searched</t>
+  </si>
+  <si>
+    <t>寻找</t>
+  </si>
+  <si>
+    <t>skaffa</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>获得</t>
+  </si>
+  <si>
+    <t>活得</t>
+  </si>
+  <si>
+    <t>strand</t>
+  </si>
+  <si>
+    <t>kanter</t>
+  </si>
+  <si>
+    <t>edges</t>
+  </si>
+  <si>
+    <t>海滩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beach </t>
+  </si>
+  <si>
+    <t>Leddjur</t>
+  </si>
+  <si>
+    <t>Arthropods</t>
+  </si>
+  <si>
+    <t>节肢动物</t>
+  </si>
+  <si>
+    <t>hoppstjärtar</t>
+  </si>
+  <si>
+    <t>springtails</t>
+  </si>
+  <si>
+    <t>跳虫</t>
+  </si>
+  <si>
+    <t>skorpioner</t>
+  </si>
+  <si>
+    <t>scorpions</t>
+  </si>
+  <si>
+    <t>蝎子</t>
+  </si>
+  <si>
+    <t>spindeldjur</t>
+  </si>
+  <si>
+    <t>arachnids</t>
+  </si>
+  <si>
+    <t>蛛形纲动物</t>
+  </si>
+  <si>
+    <t>Förutom</t>
+  </si>
+  <si>
+    <t>In addition to</t>
+  </si>
+  <si>
+    <t>除此以外</t>
+  </si>
+  <si>
+    <t>Groddjur</t>
+  </si>
+  <si>
+    <t>Amphibians</t>
+  </si>
+  <si>
+    <t>两栖类</t>
+  </si>
+  <si>
+    <t>såg ut</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>看上去</t>
+  </si>
+  <si>
+    <t>ödlor</t>
+  </si>
+  <si>
+    <t>lizards</t>
+  </si>
+  <si>
+    <t>蜥蜴</t>
+  </si>
+  <si>
+    <t>ryggrad</t>
+  </si>
+  <si>
+    <t>backbone</t>
+  </si>
+  <si>
+    <t>背骨</t>
+  </si>
+  <si>
+    <t>fjäll</t>
+  </si>
+  <si>
+    <t>scales</t>
+  </si>
+  <si>
+    <t>鳞片</t>
+  </si>
+  <si>
+    <t>snabbt</t>
+  </si>
+  <si>
+    <t>quickly</t>
+  </si>
+  <si>
+    <t>快速地</t>
+  </si>
+  <si>
+    <t>likheter</t>
+  </si>
+  <si>
+    <t>similarities</t>
+  </si>
+  <si>
+    <t>相似(名词)</t>
+  </si>
+  <si>
+    <t>hållet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completely </t>
+  </si>
+  <si>
+    <t>märktes</t>
+  </si>
+  <si>
+    <t>was labeled, was marked</t>
+  </si>
+  <si>
+    <t>明显</t>
+  </si>
+  <si>
+    <t>完全地</t>
+  </si>
+  <si>
+    <t>fortplanta</t>
+  </si>
+  <si>
+    <t>sökte upp</t>
+  </si>
+  <si>
+    <t>searched for</t>
+  </si>
+  <si>
+    <t>torkat ut</t>
+  </si>
+  <si>
+    <t>dried out</t>
+  </si>
+  <si>
+    <t>干枯</t>
+  </si>
+  <si>
+    <t>kackerlackor</t>
+  </si>
+  <si>
+    <t>cockroaches</t>
+  </si>
+  <si>
+    <t>蟑螂</t>
+  </si>
+  <si>
+    <t>jättetrollsländor</t>
+  </si>
+  <si>
+    <t>dragonflies</t>
+  </si>
+  <si>
+    <t>蜻蜓</t>
+  </si>
+  <si>
+    <t>vattensalamandrar</t>
+  </si>
+  <si>
+    <t>蝾螈</t>
+  </si>
+  <si>
+    <t>newts</t>
+  </si>
+  <si>
+    <t>dammar</t>
+  </si>
+  <si>
+    <t>ponds</t>
+  </si>
+  <si>
+    <t>池塘</t>
+  </si>
+  <si>
+    <t>muskulösa</t>
+  </si>
+  <si>
+    <t>muscular</t>
+  </si>
+  <si>
+    <t>肌肉发达的</t>
+  </si>
+  <si>
+    <t>bakben</t>
+  </si>
+  <si>
+    <t>hind legs</t>
+  </si>
+  <si>
+    <t>后腿</t>
+  </si>
+  <si>
+    <t>fort</t>
+  </si>
+  <si>
+    <t>快的</t>
+  </si>
+  <si>
+    <t>giftkörtlar</t>
+  </si>
+  <si>
+    <t>poison glands</t>
+  </si>
+  <si>
+    <t>毒腺</t>
+  </si>
+  <si>
+    <t>rovdjur</t>
+  </si>
+  <si>
+    <t>捕食者</t>
+  </si>
+  <si>
+    <t>predator</t>
+  </si>
+  <si>
+    <t>bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bit </t>
+  </si>
+  <si>
+    <t>咬</t>
+  </si>
+  <si>
+    <t>släppte</t>
+  </si>
+  <si>
+    <t>dropped</t>
+  </si>
+  <si>
+    <t>丢掉</t>
+  </si>
+  <si>
+    <t>vassa</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>锋利的</t>
+  </si>
+  <si>
+    <t>käkens</t>
+  </si>
+  <si>
+    <t>jaw</t>
+  </si>
+  <si>
+    <t>går av</t>
+  </si>
+  <si>
+    <t>断裂</t>
+  </si>
+  <si>
+    <t>goes off, break off</t>
+  </si>
+  <si>
+    <t>täckt</t>
+  </si>
+  <si>
+    <t>covered</t>
+  </si>
+  <si>
+    <t>覆盖着</t>
+  </si>
+  <si>
+    <t>taggar</t>
+  </si>
+  <si>
+    <t>spines</t>
+  </si>
+  <si>
+    <t>刺</t>
+  </si>
+  <si>
+    <t>sträv</t>
+  </si>
+  <si>
+    <t>rough</t>
+  </si>
+  <si>
+    <t>粗糙的</t>
+  </si>
+  <si>
+    <t>sandpapper</t>
+  </si>
+  <si>
+    <t>砂纸</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>smooth</t>
+  </si>
+  <si>
+    <t>光滑的</t>
+  </si>
+  <si>
+    <t>padda</t>
+  </si>
+  <si>
+    <t>toad</t>
+  </si>
+  <si>
+    <t>蟾蜍</t>
+  </si>
+  <si>
+    <t>grodor</t>
+  </si>
+  <si>
+    <t>frogs</t>
+  </si>
+  <si>
+    <t>青蛙</t>
+  </si>
+  <si>
+    <t>can handle</t>
+  </si>
+  <si>
+    <t>可以处理</t>
+  </si>
+  <si>
+    <t>snokar</t>
+  </si>
+  <si>
+    <t>snakes</t>
+  </si>
+  <si>
+    <t>蛇</t>
+  </si>
+  <si>
+    <t>erövrar</t>
+  </si>
+  <si>
+    <t>conquer</t>
+  </si>
+  <si>
+    <t>征服</t>
+  </si>
+  <si>
+    <t>beroende</t>
+  </si>
+  <si>
+    <t>depended</t>
+  </si>
+  <si>
+    <t>依靠</t>
+  </si>
+  <si>
+    <t>äkta</t>
+  </si>
+  <si>
+    <t>真正的</t>
+  </si>
+  <si>
+    <t>kräldjur</t>
+  </si>
+  <si>
+    <t>reptiles</t>
+  </si>
+  <si>
+    <t>爬行动物</t>
+  </si>
+  <si>
+    <t>växel</t>
+  </si>
+  <si>
+    <t>交换</t>
+  </si>
+  <si>
+    <t>växelvarma</t>
+  </si>
+  <si>
+    <t>温血的</t>
+  </si>
+  <si>
+    <t>alternately warm, warm-blooded</t>
+  </si>
+  <si>
+    <t>omgivningens</t>
+  </si>
+  <si>
+    <t>surroundings</t>
+  </si>
+  <si>
+    <t>周围环境</t>
+  </si>
+  <si>
+    <t>svala</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>凉爽的</t>
+  </si>
+  <si>
+    <t>speciell</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>特别的</t>
+  </si>
+  <si>
+    <t>fena</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>vände</t>
+  </si>
+  <si>
+    <t>turned</t>
+  </si>
+  <si>
+    <t>转向</t>
+  </si>
+  <si>
+    <t>höja</t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t>提高</t>
+  </si>
+  <si>
+    <t>flydde</t>
+  </si>
+  <si>
+    <t>escaped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">springa </t>
+  </si>
+  <si>
+    <t>跑</t>
+  </si>
+  <si>
+    <t>逃跑</t>
+  </si>
+  <si>
+    <t>kraftigt</t>
+  </si>
+  <si>
+    <t>坚固的</t>
+  </si>
+  <si>
+    <t>läderartat</t>
+  </si>
+  <si>
+    <t>leathery</t>
+  </si>
+  <si>
+    <t>皮质</t>
+  </si>
+  <si>
+    <t>sköldar</t>
+  </si>
+  <si>
+    <t>shields</t>
+  </si>
+  <si>
+    <t>盾牌</t>
+  </si>
+  <si>
+    <t>tortoise</t>
+  </si>
+  <si>
+    <t>Leguanen</t>
+  </si>
+  <si>
+    <t>The iguana</t>
+  </si>
+  <si>
+    <t>鬣蜥</t>
+  </si>
+  <si>
+    <t>annorlunda</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>不同的</t>
+  </si>
+  <si>
+    <t>formad</t>
+  </si>
+  <si>
+    <t>shaped</t>
+  </si>
+  <si>
+    <t>成…形状</t>
+  </si>
+  <si>
+    <t>näbb</t>
+  </si>
+  <si>
+    <t>beak</t>
+  </si>
+  <si>
+    <t>喙</t>
+  </si>
+  <si>
+    <t>föregångare</t>
+  </si>
+  <si>
+    <t>ancestors</t>
+  </si>
+  <si>
+    <t>祖先</t>
+  </si>
+  <si>
+    <t>flygande</t>
+  </si>
+  <si>
+    <t>flying</t>
+  </si>
+  <si>
+    <t>会飞的</t>
+  </si>
+  <si>
+    <t>trolig</t>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t>可信的</t>
+  </si>
+  <si>
+    <t>teori</t>
+  </si>
+  <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>理论</t>
+  </si>
+  <si>
+    <t>tvåbenta</t>
+  </si>
+  <si>
+    <t>bipedal</t>
+  </si>
+  <si>
+    <t>两足的</t>
+  </si>
+  <si>
+    <t>the end</t>
+  </si>
+  <si>
+    <t>stödja</t>
+  </si>
+  <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>kalkstensbrott</t>
+  </si>
+  <si>
+    <t>limestone quarry</t>
+  </si>
+  <si>
+    <t>石灰岩采石场</t>
+  </si>
+  <si>
+    <t>svans</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>尾巴</t>
+  </si>
+  <si>
+    <t>urfågeln</t>
+  </si>
+  <si>
+    <t>primordial bird</t>
+  </si>
+  <si>
+    <t>始祖鸟</t>
+  </si>
+  <si>
+    <t>pågick</t>
+  </si>
+  <si>
+    <t>was ongoing</t>
+  </si>
+  <si>
+    <t>正在进行中</t>
+  </si>
+  <si>
+    <t>dominerade</t>
+  </si>
+  <si>
+    <t>dominated</t>
+  </si>
+  <si>
+    <t>主宰</t>
+  </si>
+  <si>
+    <t>Brachiosaurus</t>
+  </si>
+  <si>
+    <t>腕龙</t>
+  </si>
+  <si>
+    <t>växtätande</t>
+  </si>
+  <si>
+    <t>herbivorous</t>
+  </si>
+  <si>
+    <t>食草的</t>
+  </si>
+  <si>
+    <t>vägde</t>
+  </si>
+  <si>
+    <t>weighed</t>
+  </si>
+  <si>
+    <t>重达</t>
+  </si>
+  <si>
+    <t>köttätande</t>
+  </si>
+  <si>
+    <t>carnivorous</t>
+  </si>
+  <si>
+    <t>食肉的</t>
+  </si>
+  <si>
+    <t>Tyrannosaurus rex</t>
+  </si>
+  <si>
+    <t>霸王龙</t>
+  </si>
+  <si>
+    <t>gick</t>
+  </si>
+  <si>
+    <t>walked</t>
+  </si>
+  <si>
+    <t>行走</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>ifatt</t>
+  </si>
+  <si>
+    <t>catch up</t>
+  </si>
+  <si>
+    <t>追上</t>
+  </si>
+  <si>
+    <t>reste</t>
+  </si>
+  <si>
+    <t>stood</t>
+  </si>
+  <si>
+    <t>站立</t>
+  </si>
+  <si>
+    <t>nådde</t>
+  </si>
+  <si>
+    <t>reached</t>
+  </si>
+  <si>
+    <t>väldiga</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>巨大的</t>
+  </si>
+  <si>
+    <t>sågtandade</t>
+  </si>
+  <si>
+    <t>saw-toothed</t>
+  </si>
+  <si>
+    <t>锯齿状的</t>
+  </si>
+  <si>
+    <t>slet</t>
+  </si>
+  <si>
+    <t>tore (tear的过去式)</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>victims</t>
+  </si>
+  <si>
+    <t>受害者</t>
+  </si>
+  <si>
+    <t>lagom</t>
+  </si>
+  <si>
+    <t>just right</t>
+  </si>
+  <si>
+    <t>刚刚好</t>
+  </si>
+  <si>
+    <t>munsbitar</t>
+  </si>
+  <si>
+    <t>mouth pieces</t>
+  </si>
+  <si>
+    <t>一口大小的碎片</t>
+  </si>
+  <si>
+    <t>glidflygande</t>
+  </si>
+  <si>
+    <t>gliding</t>
+  </si>
+  <si>
+    <t>滑翔的</t>
+  </si>
+  <si>
+    <t>klättrade</t>
+  </si>
+  <si>
+    <t>climbed</t>
+  </si>
+  <si>
+    <t>vingarna</t>
+  </si>
+  <si>
+    <t>wings</t>
+  </si>
+  <si>
+    <t>翅膀</t>
+  </si>
+  <si>
+    <t>vingspetsarna</t>
+  </si>
+  <si>
+    <t>wingtips</t>
+  </si>
+  <si>
+    <t>翼尖</t>
+  </si>
+  <si>
+    <t>skickliga</t>
+  </si>
+  <si>
+    <t>skilled</t>
+  </si>
+  <si>
+    <t>娴熟的</t>
+  </si>
+  <si>
+    <t>segelflygare</t>
+  </si>
+  <si>
+    <t>gliders</t>
+  </si>
+  <si>
+    <t>滑翔者</t>
+  </si>
+  <si>
+    <t>utnyttja</t>
+  </si>
+  <si>
+    <t>use, utilize</t>
+  </si>
+  <si>
+    <t>利用</t>
+  </si>
+  <si>
+    <t>anknäbbsdinosaurie</t>
+  </si>
+  <si>
+    <t>ancestral beaked dinosaur.</t>
+  </si>
+  <si>
+    <t>喙龙祖先</t>
+  </si>
+  <si>
+    <t>juraperioden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurassic period </t>
+  </si>
+  <si>
+    <t>侏罗纪时期</t>
+  </si>
+  <si>
+    <t>fortfarande</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>仍然</t>
+  </si>
+  <si>
+    <t>boet</t>
+  </si>
+  <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>巢穴</t>
+  </si>
+  <si>
+    <t>Däggdjuren</t>
+  </si>
+  <si>
+    <t>Mammals</t>
+  </si>
+  <si>
+    <t>哺乳动物</t>
+  </si>
+  <si>
+    <t>märkligt</t>
+  </si>
+  <si>
+    <t>försvann</t>
+  </si>
+  <si>
+    <t>disappeared</t>
+  </si>
+  <si>
+    <t>消失</t>
+  </si>
+  <si>
+    <t>följd</t>
+  </si>
+  <si>
+    <t>following</t>
+  </si>
+  <si>
+    <t>随着</t>
+  </si>
+  <si>
+    <t>meteoritnedslag</t>
+  </si>
+  <si>
+    <t>meteorite impact</t>
+  </si>
+  <si>
+    <t>陨石撞击</t>
+  </si>
+  <si>
+    <t>vulkanutbrott</t>
+  </si>
+  <si>
+    <t>volcanic eruptions</t>
+  </si>
+  <si>
+    <t>火山爆发</t>
+  </si>
+  <si>
+    <t>näbbdjursliknande</t>
+  </si>
+  <si>
+    <t>platypus-like animals</t>
+  </si>
+  <si>
+    <t>鸭嘴兽</t>
+  </si>
+  <si>
+    <t>dog ut</t>
+  </si>
+  <si>
+    <t>died out</t>
+  </si>
+  <si>
+    <t>灭绝</t>
+  </si>
+  <si>
+    <t>tog hand om</t>
+  </si>
+  <si>
+    <t xml:space="preserve">took care of </t>
+  </si>
+  <si>
+    <t>照顾</t>
+  </si>
+  <si>
+    <t>spenar</t>
+  </si>
+  <si>
+    <t>teats</t>
+  </si>
+  <si>
+    <t>乳头</t>
+  </si>
+  <si>
+    <t>magen</t>
+  </si>
+  <si>
+    <t>belly</t>
+  </si>
+  <si>
+    <t>腹部</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>suckle</t>
+  </si>
+  <si>
+    <t>吸吮</t>
+  </si>
+  <si>
+    <t>kläcktes</t>
+  </si>
+  <si>
+    <t>hatched</t>
+  </si>
+  <si>
+    <t>孵化</t>
+  </si>
+  <si>
+    <t>kravlade</t>
+  </si>
+  <si>
+    <t>sög</t>
+  </si>
+  <si>
+    <t>attached</t>
+  </si>
+  <si>
+    <t>吸附</t>
+  </si>
+  <si>
+    <t>födseln</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>出生</t>
+  </si>
+  <si>
+    <t>hudveck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a fold of skin</t>
+  </si>
+  <si>
+    <t>皮肤褶皱</t>
+  </si>
+  <si>
+    <t>pung</t>
+  </si>
+  <si>
+    <t>pouch</t>
+  </si>
+  <si>
+    <t>小袋</t>
+  </si>
+  <si>
+    <t>mage</t>
+  </si>
+  <si>
+    <t>klara</t>
+  </si>
+  <si>
+    <t>cope with, handle</t>
+  </si>
+  <si>
+    <t>应付</t>
+  </si>
+  <si>
+    <t>kvarlevor</t>
+  </si>
+  <si>
+    <t>遗留</t>
+  </si>
+  <si>
+    <t>förfäderna</t>
+  </si>
+  <si>
+    <t>ancestral</t>
+  </si>
+  <si>
+    <t>祖先的</t>
+  </si>
+  <si>
+    <t>avtryck</t>
+  </si>
+  <si>
+    <t>varelser</t>
+  </si>
+  <si>
+    <t>creatures</t>
+  </si>
+  <si>
+    <t>flodbädd</t>
+  </si>
+  <si>
+    <t>riverbed</t>
+  </si>
+  <si>
+    <t>河床</t>
+  </si>
+  <si>
+    <t>nuvarande</t>
+  </si>
+  <si>
+    <t>present-day</t>
+  </si>
+  <si>
+    <t>现在的</t>
+  </si>
+  <si>
+    <t>imprint</t>
+  </si>
+  <si>
+    <t>印记</t>
+  </si>
+  <si>
+    <t>stannade</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>till ett tag</t>
+  </si>
+  <si>
+    <t>for a while</t>
+  </si>
+  <si>
+    <t>一会儿</t>
+  </si>
+  <si>
+    <t>fotavtryck</t>
+  </si>
+  <si>
+    <t>footprints</t>
+  </si>
+  <si>
+    <t>脚印</t>
+  </si>
+  <si>
+    <t>leran</t>
+  </si>
+  <si>
+    <t>mud</t>
+  </si>
+  <si>
+    <t>泥地</t>
+  </si>
+  <si>
+    <t>slungade</t>
+  </si>
+  <si>
+    <t>spewed</t>
+  </si>
+  <si>
+    <t>喷出</t>
+  </si>
+  <si>
+    <t>aska</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>灰</t>
+  </si>
+  <si>
+    <t>begravde</t>
+  </si>
+  <si>
+    <t>掩埋</t>
+  </si>
+  <si>
+    <t>fotspåren</t>
+  </si>
+  <si>
+    <t>omvandlades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were transformed </t>
+  </si>
+  <si>
+    <t>被转变成</t>
+  </si>
+  <si>
+    <t>förmodligen</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>bevarade</t>
+  </si>
+  <si>
+    <t>保留的</t>
+  </si>
+  <si>
+    <t>spåren</t>
+  </si>
+  <si>
+    <t>traces</t>
+  </si>
+  <si>
+    <t>upptäcka</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>faror</t>
+  </si>
+  <si>
+    <t>dangers</t>
+  </si>
+  <si>
+    <t>lediga</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>自由的</t>
+  </si>
+  <si>
+    <t>gräva</t>
+  </si>
+  <si>
+    <t>dig</t>
+  </si>
+  <si>
+    <t>挖掘</t>
+  </si>
+  <si>
+    <t>ätliga</t>
+  </si>
+  <si>
+    <t>edible</t>
+  </si>
+  <si>
+    <t>可食用的</t>
+  </si>
+  <si>
+    <t>rötter</t>
+  </si>
+  <si>
+    <t>roots</t>
+  </si>
+  <si>
+    <t>草根</t>
+  </si>
+  <si>
+    <t>bära</t>
+  </si>
+  <si>
+    <t>carry</t>
+  </si>
+  <si>
+    <t>搬运</t>
+  </si>
+  <si>
+    <t>fynd</t>
+  </si>
+  <si>
+    <t>Finds</t>
+  </si>
+  <si>
+    <t>sett ut</t>
+  </si>
+  <si>
+    <t>长相</t>
+  </si>
+  <si>
+    <t>räknat ut</t>
+  </si>
+  <si>
+    <t>count out, work out</t>
+  </si>
+  <si>
+    <t>算出，推测出</t>
+  </si>
+  <si>
+    <t>kompakta</t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>紧凑的</t>
+  </si>
+  <si>
+    <t>enklare</t>
+  </si>
+  <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>yxor</t>
+  </si>
+  <si>
+    <t>axes</t>
+  </si>
+  <si>
+    <t>斧头</t>
+  </si>
+  <si>
+    <t>strövade</t>
+  </si>
+  <si>
+    <t>roamed</t>
+  </si>
+  <si>
+    <t>游荡</t>
+  </si>
+  <si>
+    <t>slätter</t>
+  </si>
+  <si>
+    <t>plains</t>
+  </si>
+  <si>
+    <t>平原</t>
+  </si>
+  <si>
+    <t>pinnar</t>
+  </si>
+  <si>
+    <t>sticks</t>
+  </si>
+  <si>
+    <t>木棍</t>
+  </si>
+  <si>
+    <t>grottor</t>
+  </si>
+  <si>
+    <t>caves</t>
+  </si>
+  <si>
+    <t>洞穴</t>
+  </si>
+  <si>
+    <t>lyckats</t>
+  </si>
+  <si>
+    <t>succeeded</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>framgångsrika</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>成功的</t>
+  </si>
+  <si>
+    <t>jakter</t>
+  </si>
+  <si>
+    <t>hunts</t>
+  </si>
+  <si>
+    <t>捕猎</t>
+  </si>
+  <si>
+    <t>synålar</t>
+  </si>
+  <si>
+    <t>sewing needles</t>
+  </si>
+  <si>
+    <t>缝衣针</t>
+  </si>
+  <si>
+    <t>harpuner</t>
+  </si>
+  <si>
+    <t>harpoons</t>
+  </si>
+  <si>
+    <t>鱼叉</t>
+  </si>
+  <si>
+    <t>smycken</t>
+  </si>
+  <si>
+    <t>jewelry</t>
+  </si>
+  <si>
+    <t>珠宝</t>
+  </si>
+  <si>
+    <t>skulpturer</t>
+  </si>
+  <si>
+    <t>sculptures</t>
+  </si>
+  <si>
+    <t>雕塑</t>
+  </si>
+  <si>
+    <t>elden</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>智人</t>
+  </si>
+  <si>
+    <t>bredde ut</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>扩散</t>
+  </si>
+  <si>
+    <t>utkonkurrerade</t>
+  </si>
+  <si>
+    <t>outcompeted</t>
+  </si>
+  <si>
+    <t>被淘汰</t>
+  </si>
+  <si>
+    <t>motiv</t>
+  </si>
+  <si>
+    <t>motive</t>
+  </si>
+  <si>
+    <t>主题</t>
+  </si>
+  <si>
+    <t>botanikern</t>
+  </si>
+  <si>
+    <t>botanist</t>
+  </si>
+  <si>
+    <t>植物学家</t>
+  </si>
+  <si>
+    <t>indelningen</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>idéer</t>
+  </si>
+  <si>
+    <t>ideas</t>
+  </si>
+  <si>
+    <t>想法</t>
+  </si>
+  <si>
+    <t>inspirerades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was inspired </t>
+  </si>
+  <si>
+    <t>得到启发</t>
+  </si>
+  <si>
+    <t>studieresor</t>
+  </si>
+  <si>
+    <t>study trips</t>
+  </si>
+  <si>
+    <t>släktnamn</t>
+  </si>
+  <si>
+    <t>genus name</t>
+  </si>
+  <si>
+    <t>属名</t>
+  </si>
+  <si>
+    <t>artnamn</t>
+  </si>
+  <si>
+    <t>species name</t>
+  </si>
+  <si>
+    <t>种名</t>
+  </si>
+  <si>
+    <t>vetenskapens</t>
+  </si>
+  <si>
+    <t>science's</t>
+  </si>
+  <si>
+    <t>科学的</t>
+  </si>
+  <si>
+    <t>valde</t>
+  </si>
+  <si>
+    <t>chose(choose的过去式)</t>
+  </si>
+  <si>
+    <t>scientists</t>
+  </si>
+  <si>
+    <t>överlevt</t>
+  </si>
+  <si>
+    <t>survived</t>
+  </si>
+  <si>
+    <t>沿用至今</t>
+  </si>
+  <si>
+    <t>Vaccinium</t>
+  </si>
+  <si>
+    <t>蔓越莓</t>
+  </si>
+  <si>
+    <t>släktet</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>属</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>samla</t>
+  </si>
+  <si>
+    <t>collect</t>
+  </si>
+  <si>
+    <t>收集</t>
+  </si>
+  <si>
+    <t>fjärilar</t>
+  </si>
+  <si>
+    <t>butterflies</t>
+  </si>
+  <si>
+    <t>蝴蝶</t>
+  </si>
+  <si>
+    <t>skalbaggar</t>
+  </si>
+  <si>
+    <t>beetles</t>
+  </si>
+  <si>
+    <t>甲虫</t>
+  </si>
+  <si>
+    <t>medicin</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>医学</t>
+  </si>
+  <si>
+    <t>behöll</t>
+  </si>
+  <si>
+    <t>kept</t>
+  </si>
+  <si>
+    <t>保持</t>
+  </si>
+  <si>
+    <t>chansen</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>机会</t>
+  </si>
+  <si>
+    <t>follow, comply</t>
+  </si>
+  <si>
+    <t>跟随</t>
+  </si>
+  <si>
+    <t>fartyg</t>
+  </si>
+  <si>
+    <t>voyage</t>
+  </si>
+  <si>
+    <t>航程</t>
+  </si>
+  <si>
+    <t>återvände</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>返回到</t>
+  </si>
+  <si>
+    <t>fundera</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
+    <t>反思</t>
+  </si>
+  <si>
+    <t>upplevt</t>
+  </si>
+  <si>
+    <t>experienced</t>
+  </si>
+  <si>
+    <t>sett</t>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>经历过的</t>
+  </si>
+  <si>
+    <t>看到的</t>
+  </si>
+  <si>
+    <t>upptäckter</t>
+  </si>
+  <si>
+    <t>discoveries</t>
+  </si>
+  <si>
+    <t>fåtal</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>很少</t>
+  </si>
+  <si>
+    <t>föds</t>
+  </si>
+  <si>
+    <t>is born</t>
+  </si>
+  <si>
+    <t>boplatser</t>
+  </si>
+  <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>栖息地</t>
+  </si>
+  <si>
+    <t>anpassade</t>
+  </si>
+  <si>
+    <t>adapted</t>
+  </si>
+  <si>
+    <t>适应的</t>
+  </si>
+  <si>
+    <t>krav</t>
+  </si>
+  <si>
+    <t>demands</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>urvalet</t>
+  </si>
+  <si>
+    <t>selection</t>
   </si>
 </sst>
 </file>
@@ -3124,7 +5225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3132,6 +5233,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3415,7 +5520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4128,8 +6235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5084A4-ADD3-4942-8166-446E24600D98}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4610,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346E30D6-6A9B-444E-988D-CFC351CA55F7}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5225,12 +7332,3056 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE499DC-79A9-4E44-9044-AD8814726DB0}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.578125" customWidth="1"/>
+    <col min="2" max="2" width="13.47265625" customWidth="1"/>
+    <col min="3" max="3" width="11.15625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>878</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5EF0B1-9726-492D-BC7E-A0C9D4D7F373}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.41796875" customWidth="1"/>
+    <col min="2" max="2" width="15.15625" customWidth="1"/>
+    <col min="3" max="3" width="13.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>958</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>889</v>
+      </c>
+      <c r="B20" t="s">
+        <v>890</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF7CE76-0894-497E-9C0C-51F4B241042E}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="20.20703125" customWidth="1"/>
+    <col min="2" max="2" width="20.3671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.9453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>918</v>
+      </c>
+      <c r="C17" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>624</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67FEE14-B94C-4F31-82BF-CE1A43C7428F}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.3125" customWidth="1"/>
+    <col min="2" max="2" width="26.83984375" customWidth="1"/>
+    <col min="3" max="3" width="15.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>992</v>
+      </c>
+      <c r="B3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>618</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C20" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCD0EC6-A69A-4C71-AFCC-2FD7480A7586}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="17.83984375" customWidth="1"/>
+    <col min="2" max="2" width="23.734375" customWidth="1"/>
+    <col min="3" max="3" width="14.734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B10" t="s">
+        <v>959</v>
+      </c>
+      <c r="C10" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19AF0F2-AADF-4E77-9F68-E80DC1C71650}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.9453125" customWidth="1"/>
+    <col min="2" max="2" width="17.68359375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B22" t="s">
+        <v>707</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C25" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B34" t="s">
+        <v>708</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C37" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B38" t="s">
+        <v>709</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE4CC0F-A050-4573-8757-66A837DA3C05}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.7890625" customWidth="1"/>
+    <col min="2" max="2" width="23.05078125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C20" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C24" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>686</v>
+      </c>
+      <c r="B26" t="s">
+        <v>710</v>
+      </c>
+      <c r="C26" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C44" t="s">
+        <v>606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C91FA-1948-4AB4-8761-7624062EA192}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6017,7 +11168,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6488,7 +11639,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/NO 6/words.xlsx
+++ b/NO 6/words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\NO 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F77D770-9A33-42BD-8B6D-72F79C732232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEB6F58-BDB2-4BA5-BD5D-1954650E0F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter1" sheetId="1" r:id="rId1"/>
@@ -5518,710 +5518,724 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.89453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.20703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.89453125" style="1"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.68359375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.62890625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9877,7 +9891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE4CC0F-A050-4573-8757-66A837DA3C05}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>

--- a/NO 6/words.xlsx
+++ b/NO 6/words.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\NO 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dalei\LeiLei\translate\NO5\NO 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEB6F58-BDB2-4BA5-BD5D-1954650E0F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED29B4-E40B-47BE-983A-399EB3D746AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter1" sheetId="1" r:id="rId1"/>
-    <sheet name="25" sheetId="2" r:id="rId2"/>
-    <sheet name="26" sheetId="3" r:id="rId3"/>
-    <sheet name="27" sheetId="4" r:id="rId4"/>
-    <sheet name="29-30" sheetId="5" r:id="rId5"/>
-    <sheet name="38" sheetId="6" r:id="rId6"/>
-    <sheet name="39" sheetId="7" r:id="rId7"/>
-    <sheet name="40" sheetId="8" r:id="rId8"/>
-    <sheet name="42" sheetId="9" r:id="rId9"/>
-    <sheet name="43" sheetId="10" r:id="rId10"/>
-    <sheet name="44" sheetId="11" r:id="rId11"/>
-    <sheet name="45" sheetId="12" r:id="rId12"/>
-    <sheet name="46" sheetId="13" r:id="rId13"/>
-    <sheet name="47" sheetId="14" r:id="rId14"/>
-    <sheet name="48" sheetId="16" r:id="rId15"/>
-    <sheet name="49" sheetId="17" r:id="rId16"/>
-    <sheet name="50" sheetId="18" r:id="rId17"/>
-    <sheet name="51" sheetId="19" r:id="rId18"/>
+    <sheet name="begrepp" sheetId="20" r:id="rId2"/>
+    <sheet name="25" sheetId="2" r:id="rId3"/>
+    <sheet name="26" sheetId="3" r:id="rId4"/>
+    <sheet name="27" sheetId="4" r:id="rId5"/>
+    <sheet name="29-30" sheetId="5" r:id="rId6"/>
+    <sheet name="38" sheetId="6" r:id="rId7"/>
+    <sheet name="39" sheetId="7" r:id="rId8"/>
+    <sheet name="40" sheetId="8" r:id="rId9"/>
+    <sheet name="42" sheetId="9" r:id="rId10"/>
+    <sheet name="43" sheetId="10" r:id="rId11"/>
+    <sheet name="44" sheetId="11" r:id="rId12"/>
+    <sheet name="45" sheetId="12" r:id="rId13"/>
+    <sheet name="46" sheetId="13" r:id="rId14"/>
+    <sheet name="47" sheetId="14" r:id="rId15"/>
+    <sheet name="48" sheetId="16" r:id="rId16"/>
+    <sheet name="49" sheetId="17" r:id="rId17"/>
+    <sheet name="50" sheetId="18" r:id="rId18"/>
+    <sheet name="51" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="1709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1777">
   <si>
     <t>färdas</t>
   </si>
@@ -5169,13 +5170,217 @@
   </si>
   <si>
     <t>selection</t>
+  </si>
+  <si>
+    <t>asteriod</t>
+  </si>
+  <si>
+    <t>astronomi</t>
+  </si>
+  <si>
+    <t>atmosfär</t>
+  </si>
+  <si>
+    <t>dygn</t>
+  </si>
+  <si>
+    <t>galax</t>
+  </si>
+  <si>
+    <t>himlakropp</t>
+  </si>
+  <si>
+    <t>jordaxel</t>
+  </si>
+  <si>
+    <t>jupiter</t>
+  </si>
+  <si>
+    <t>komet</t>
+  </si>
+  <si>
+    <t>kosmonaut</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>merkurius</t>
+  </si>
+  <si>
+    <t>meteor</t>
+  </si>
+  <si>
+    <t>meteorit</t>
+  </si>
+  <si>
+    <t>midnattssol</t>
+  </si>
+  <si>
+    <t>månad</t>
+  </si>
+  <si>
+    <t>måne</t>
+  </si>
+  <si>
+    <t>månförmörkelse</t>
+  </si>
+  <si>
+    <t>nebulosa</t>
+  </si>
+  <si>
+    <t>neptunus</t>
+  </si>
+  <si>
+    <t>neutronstjärna</t>
+  </si>
+  <si>
+    <t>omloppsbana</t>
+  </si>
+  <si>
+    <t>röd jätte</t>
+  </si>
+  <si>
+    <t>satellit</t>
+  </si>
+  <si>
+    <t>saturnus</t>
+  </si>
+  <si>
+    <t>skottår</t>
+  </si>
+  <si>
+    <t>solförmörkelse</t>
+  </si>
+  <si>
+    <t>supernova</t>
+  </si>
+  <si>
+    <t>svart hål</t>
+  </si>
+  <si>
+    <t>teleskop</t>
+  </si>
+  <si>
+    <t>universum</t>
+  </si>
+  <si>
+    <t>uranus</t>
+  </si>
+  <si>
+    <t>vakuum</t>
+  </si>
+  <si>
+    <t>venus</t>
+  </si>
+  <si>
+    <t>vintergatan</t>
+  </si>
+  <si>
+    <t>vit dvärg</t>
+  </si>
+  <si>
+    <t>världsbild</t>
+  </si>
+  <si>
+    <t>天文学</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>星系</t>
+  </si>
+  <si>
+    <t>天体</t>
+  </si>
+  <si>
+    <t>地轴</t>
+  </si>
+  <si>
+    <t>木星</t>
+  </si>
+  <si>
+    <t>彗星</t>
+  </si>
+  <si>
+    <t>火星</t>
+  </si>
+  <si>
+    <t>水星</t>
+  </si>
+  <si>
+    <t>陨石</t>
+  </si>
+  <si>
+    <t>月食</t>
+  </si>
+  <si>
+    <t>海王星</t>
+  </si>
+  <si>
+    <t>中子星</t>
+  </si>
+  <si>
+    <t>轨道</t>
+  </si>
+  <si>
+    <t>红巨星</t>
+  </si>
+  <si>
+    <t>土星</t>
+  </si>
+  <si>
+    <t>闰年</t>
+  </si>
+  <si>
+    <t>日食</t>
+  </si>
+  <si>
+    <t>超新星</t>
+  </si>
+  <si>
+    <t>黑洞</t>
+  </si>
+  <si>
+    <t>宇宙</t>
+  </si>
+  <si>
+    <t>真空</t>
+  </si>
+  <si>
+    <t>金星</t>
+  </si>
+  <si>
+    <t>银河系</t>
+  </si>
+  <si>
+    <t>白矮星</t>
+  </si>
+  <si>
+    <t>世界观</t>
+  </si>
+  <si>
+    <t>流星</t>
+  </si>
+  <si>
+    <t>午夜太阳，极昼</t>
+  </si>
+  <si>
+    <t>月， month</t>
+  </si>
+  <si>
+    <t>月亮，moon</t>
+  </si>
+  <si>
+    <t>天王星</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5188,6 +5393,13 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5225,7 +5437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5235,9 +5447,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5520,20 +5733,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5234375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.68359375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.62890625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.89453125" style="1"/>
+    <col min="2" max="2" width="17.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5545,7 +5758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -5557,7 +5770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -5569,7 +5782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -5581,7 +5794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -5593,7 +5806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -5605,7 +5818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -5617,7 +5830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -5629,7 +5842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -5641,7 +5854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -5653,7 +5866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -5665,7 +5878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -5677,7 +5890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -5689,7 +5902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -5700,7 +5913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
@@ -5711,7 +5924,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4">
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
@@ -5722,7 +5935,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
@@ -5733,7 +5946,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
@@ -5744,7 +5957,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
@@ -5755,7 +5968,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
@@ -5766,7 +5979,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
@@ -5777,7 +5990,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:4">
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
@@ -5788,7 +6001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
@@ -5799,7 +6012,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
@@ -5810,7 +6023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:4">
       <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
@@ -5821,7 +6034,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:4">
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
@@ -5832,7 +6045,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
@@ -5843,7 +6056,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
@@ -5854,7 +6067,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:4">
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
@@ -5865,7 +6078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:4">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
@@ -5876,7 +6089,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
@@ -5887,7 +6100,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:4">
       <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
@@ -5898,7 +6111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:4">
       <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
@@ -5909,7 +6122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
         <v>97</v>
       </c>
@@ -5920,7 +6133,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
         <v>98</v>
       </c>
@@ -5931,7 +6144,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
         <v>99</v>
       </c>
@@ -5942,7 +6155,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
         <v>100</v>
       </c>
@@ -5953,7 +6166,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
         <v>101</v>
       </c>
@@ -5964,7 +6177,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:4">
       <c r="B39" s="1" t="s">
         <v>102</v>
       </c>
@@ -5975,7 +6188,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:4">
       <c r="B40" s="1" t="s">
         <v>103</v>
       </c>
@@ -5986,7 +6199,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:4">
       <c r="B41" s="1" t="s">
         <v>104</v>
       </c>
@@ -5997,7 +6210,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:4">
       <c r="B42" s="1" t="s">
         <v>105</v>
       </c>
@@ -6008,7 +6221,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:4">
       <c r="B43" s="1" t="s">
         <v>106</v>
       </c>
@@ -6019,7 +6232,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:4">
       <c r="B44" s="1" t="s">
         <v>107</v>
       </c>
@@ -6030,7 +6243,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:4">
       <c r="B45" s="1" t="s">
         <v>108</v>
       </c>
@@ -6041,7 +6254,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:4">
       <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
@@ -6052,7 +6265,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:4">
       <c r="B47" s="1" t="s">
         <v>109</v>
       </c>
@@ -6063,7 +6276,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:4">
       <c r="B48" s="1" t="s">
         <v>110</v>
       </c>
@@ -6074,7 +6287,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:4">
       <c r="B49" s="1" t="s">
         <v>111</v>
       </c>
@@ -6085,7 +6298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:4">
       <c r="B50" s="1" t="s">
         <v>112</v>
       </c>
@@ -6096,7 +6309,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:4">
       <c r="B51" s="1" t="s">
         <v>143</v>
       </c>
@@ -6107,7 +6320,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:4">
       <c r="B52" s="1" t="s">
         <v>144</v>
       </c>
@@ -6118,7 +6331,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:4">
       <c r="B53" s="1" t="s">
         <v>145</v>
       </c>
@@ -6129,7 +6342,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:4">
       <c r="B54" s="1" t="s">
         <v>146</v>
       </c>
@@ -6140,7 +6353,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:4">
       <c r="B55" s="1" t="s">
         <v>147</v>
       </c>
@@ -6151,7 +6364,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:4">
       <c r="B56" s="1" t="s">
         <v>148</v>
       </c>
@@ -6162,7 +6375,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:4">
       <c r="B57" s="1" t="s">
         <v>149</v>
       </c>
@@ -6173,7 +6386,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:4">
       <c r="B58" s="1" t="s">
         <v>150</v>
       </c>
@@ -6184,7 +6397,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:4">
       <c r="B59" s="1" t="s">
         <v>151</v>
       </c>
@@ -6195,7 +6408,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:4">
       <c r="B60" s="1" t="s">
         <v>152</v>
       </c>
@@ -6206,7 +6419,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:4">
       <c r="B61" s="1" t="s">
         <v>153</v>
       </c>
@@ -6217,7 +6430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:4">
       <c r="B62" s="1" t="s">
         <v>154</v>
       </c>
@@ -6228,7 +6441,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:4">
       <c r="B63" s="1" t="s">
         <v>155</v>
       </c>
@@ -6246,6 +6459,323 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4FD4AB-72C6-4008-B11F-B2E3CD07A640}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B5" t="s">
+        <v>745</v>
+      </c>
+      <c r="C5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>678</v>
+      </c>
+      <c r="B7" t="s">
+        <v>702</v>
+      </c>
+      <c r="C7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B9" t="s">
+        <v>704</v>
+      </c>
+      <c r="C9" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>681</v>
+      </c>
+      <c r="B10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>682</v>
+      </c>
+      <c r="B11" t="s">
+        <v>706</v>
+      </c>
+      <c r="C11" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>683</v>
+      </c>
+      <c r="B12" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>684</v>
+      </c>
+      <c r="B13" t="s">
+        <v>708</v>
+      </c>
+      <c r="C13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>685</v>
+      </c>
+      <c r="B14" t="s">
+        <v>709</v>
+      </c>
+      <c r="C14" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>686</v>
+      </c>
+      <c r="B15" t="s">
+        <v>710</v>
+      </c>
+      <c r="C15" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>687</v>
+      </c>
+      <c r="B16" t="s">
+        <v>711</v>
+      </c>
+      <c r="C16" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>688</v>
+      </c>
+      <c r="B17" t="s">
+        <v>706</v>
+      </c>
+      <c r="C17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>689</v>
+      </c>
+      <c r="B18" t="s">
+        <v>712</v>
+      </c>
+      <c r="C18" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>690</v>
+      </c>
+      <c r="B19" t="s">
+        <v>713</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B21" t="s">
+        <v>714</v>
+      </c>
+      <c r="C21" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>692</v>
+      </c>
+      <c r="B22" t="s">
+        <v>715</v>
+      </c>
+      <c r="C22" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>693</v>
+      </c>
+      <c r="B23" t="s">
+        <v>716</v>
+      </c>
+      <c r="C23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>694</v>
+      </c>
+      <c r="B24" t="s">
+        <v>717</v>
+      </c>
+      <c r="C24" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>695</v>
+      </c>
+      <c r="B25" t="s">
+        <v>718</v>
+      </c>
+      <c r="C25" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>696</v>
+      </c>
+      <c r="B26" t="s">
+        <v>719</v>
+      </c>
+      <c r="C26" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>697</v>
+      </c>
+      <c r="B27" t="s">
+        <v>720</v>
+      </c>
+      <c r="C27" t="s">
+        <v>744</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5084A4-ADD3-4942-8166-446E24600D98}">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -6253,14 +6783,14 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.1015625" customWidth="1"/>
-    <col min="2" max="2" width="16.5234375" customWidth="1"/>
-    <col min="3" max="3" width="18.41796875" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>746</v>
       </c>
@@ -6271,7 +6801,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>747</v>
       </c>
@@ -6282,7 +6812,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>748</v>
       </c>
@@ -6293,7 +6823,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>749</v>
       </c>
@@ -6304,7 +6834,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>750</v>
       </c>
@@ -6315,7 +6845,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>751</v>
       </c>
@@ -6326,7 +6856,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>752</v>
       </c>
@@ -6337,7 +6867,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>753</v>
       </c>
@@ -6348,7 +6878,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>754</v>
       </c>
@@ -6359,7 +6889,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>755</v>
       </c>
@@ -6370,7 +6900,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>756</v>
       </c>
@@ -6381,7 +6911,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>757</v>
       </c>
@@ -6392,7 +6922,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>760</v>
       </c>
@@ -6403,7 +6933,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>758</v>
       </c>
@@ -6414,7 +6944,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>759</v>
       </c>
@@ -6425,7 +6955,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>761</v>
       </c>
@@ -6436,7 +6966,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>762</v>
       </c>
@@ -6447,7 +6977,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>763</v>
       </c>
@@ -6458,7 +6988,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>764</v>
       </c>
@@ -6469,7 +6999,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>765</v>
       </c>
@@ -6480,7 +7010,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>800</v>
       </c>
@@ -6491,7 +7021,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>801</v>
       </c>
@@ -6502,7 +7032,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>802</v>
       </c>
@@ -6513,7 +7043,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>803</v>
       </c>
@@ -6524,7 +7054,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>804</v>
       </c>
@@ -6535,7 +7065,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>805</v>
       </c>
@@ -6546,7 +7076,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>806</v>
       </c>
@@ -6557,7 +7087,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>807</v>
       </c>
@@ -6568,7 +7098,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>808</v>
       </c>
@@ -6579,7 +7109,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>809</v>
       </c>
@@ -6590,7 +7120,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>810</v>
       </c>
@@ -6601,7 +7131,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>811</v>
       </c>
@@ -6612,7 +7142,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>812</v>
       </c>
@@ -6623,7 +7153,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>813</v>
       </c>
@@ -6634,7 +7164,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>814</v>
       </c>
@@ -6645,7 +7175,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>815</v>
       </c>
@@ -6656,7 +7186,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>816</v>
       </c>
@@ -6667,7 +7197,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>817</v>
       </c>
@@ -6678,7 +7208,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>818</v>
       </c>
@@ -6689,7 +7219,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>819</v>
       </c>
@@ -6700,7 +7230,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>820</v>
       </c>
@@ -6711,7 +7241,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>821</v>
       </c>
@@ -6727,7 +7257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346E30D6-6A9B-444E-988D-CFC351CA55F7}">
   <dimension ref="A1:C55"/>
   <sheetViews>
@@ -6735,14 +7265,14 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.1015625" customWidth="1"/>
-    <col min="2" max="2" width="18.89453125" customWidth="1"/>
-    <col min="3" max="3" width="10.3125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>869</v>
       </c>
@@ -6753,7 +7283,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>871</v>
       </c>
@@ -6764,7 +7294,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>874</v>
       </c>
@@ -6775,7 +7305,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>875</v>
       </c>
@@ -6786,7 +7316,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>808</v>
       </c>
@@ -6797,7 +7327,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>878</v>
       </c>
@@ -6808,7 +7338,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>812</v>
       </c>
@@ -6819,7 +7349,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>881</v>
       </c>
@@ -6827,7 +7357,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>883</v>
       </c>
@@ -6838,7 +7368,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>886</v>
       </c>
@@ -6849,7 +7379,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>889</v>
       </c>
@@ -6860,7 +7390,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>892</v>
       </c>
@@ -6871,7 +7401,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>895</v>
       </c>
@@ -6882,7 +7412,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>898</v>
       </c>
@@ -6893,7 +7423,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>900</v>
       </c>
@@ -6904,7 +7434,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>903</v>
       </c>
@@ -6915,7 +7445,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>906</v>
       </c>
@@ -6926,7 +7456,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>967</v>
       </c>
@@ -6937,7 +7467,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>909</v>
       </c>
@@ -6948,7 +7478,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>955</v>
       </c>
@@ -6959,7 +7489,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>911</v>
       </c>
@@ -6970,7 +7500,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>914</v>
       </c>
@@ -6981,7 +7511,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>917</v>
       </c>
@@ -6992,7 +7522,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>920</v>
       </c>
@@ -7003,7 +7533,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>923</v>
       </c>
@@ -7014,7 +7544,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>926</v>
       </c>
@@ -7025,7 +7555,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>617</v>
       </c>
@@ -7036,7 +7566,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>816</v>
       </c>
@@ -7047,7 +7577,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>931</v>
       </c>
@@ -7058,7 +7588,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>934</v>
       </c>
@@ -7069,7 +7599,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>938</v>
       </c>
@@ -7080,7 +7610,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>935</v>
       </c>
@@ -7091,7 +7621,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>941</v>
       </c>
@@ -7102,7 +7632,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>944</v>
       </c>
@@ -7113,7 +7643,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>947</v>
       </c>
@@ -7124,7 +7654,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>951</v>
       </c>
@@ -7135,7 +7665,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>950</v>
       </c>
@@ -7146,7 +7676,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>290</v>
       </c>
@@ -7157,7 +7687,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>958</v>
       </c>
@@ -7168,7 +7698,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>961</v>
       </c>
@@ -7179,7 +7709,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>964</v>
       </c>
@@ -7190,7 +7720,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>971</v>
       </c>
@@ -7201,7 +7731,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>974</v>
       </c>
@@ -7212,7 +7742,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>977</v>
       </c>
@@ -7223,7 +7753,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>980</v>
       </c>
@@ -7234,7 +7764,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>983</v>
       </c>
@@ -7245,7 +7775,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>986</v>
       </c>
@@ -7256,7 +7786,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>989</v>
       </c>
@@ -7267,7 +7797,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>992</v>
       </c>
@@ -7278,7 +7808,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>995</v>
       </c>
@@ -7289,7 +7819,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>997</v>
       </c>
@@ -7300,7 +7830,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>1000</v>
       </c>
@@ -7311,7 +7841,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>1003</v>
       </c>
@@ -7322,7 +7852,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>1006</v>
       </c>
@@ -7330,7 +7860,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>1008</v>
       </c>
@@ -7346,7 +7876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE499DC-79A9-4E44-9044-AD8814726DB0}">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -7354,14 +7884,14 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.578125" customWidth="1"/>
-    <col min="2" max="2" width="13.47265625" customWidth="1"/>
-    <col min="3" max="3" width="11.15625" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1011</v>
       </c>
@@ -7372,7 +7902,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>804</v>
       </c>
@@ -7383,7 +7913,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1015</v>
       </c>
@@ -7394,7 +7924,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1017</v>
       </c>
@@ -7405,7 +7935,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1019</v>
       </c>
@@ -7416,7 +7946,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1024</v>
       </c>
@@ -7427,7 +7957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1026</v>
       </c>
@@ -7438,7 +7968,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1029</v>
       </c>
@@ -7449,7 +7979,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1032</v>
       </c>
@@ -7460,7 +7990,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1035</v>
       </c>
@@ -7471,7 +8001,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>1038</v>
       </c>
@@ -7482,7 +8012,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>1041</v>
       </c>
@@ -7493,7 +8023,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1044</v>
       </c>
@@ -7504,7 +8034,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>1047</v>
       </c>
@@ -7515,7 +8045,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>1050</v>
       </c>
@@ -7526,7 +8056,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>878</v>
       </c>
@@ -7537,7 +8067,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1055</v>
       </c>
@@ -7548,7 +8078,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1058</v>
       </c>
@@ -7559,7 +8089,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1061</v>
       </c>
@@ -7570,7 +8100,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1064</v>
       </c>
@@ -7581,7 +8111,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1067</v>
       </c>
@@ -7592,7 +8122,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1070</v>
       </c>
@@ -7603,7 +8133,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1091</v>
       </c>
@@ -7614,7 +8144,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1094</v>
       </c>
@@ -7625,7 +8155,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1097</v>
       </c>
@@ -7636,7 +8166,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1100</v>
       </c>
@@ -7647,7 +8177,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1103</v>
       </c>
@@ -7658,7 +8188,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1582</v>
       </c>
@@ -7669,7 +8199,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1585</v>
       </c>
@@ -7680,7 +8210,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1588</v>
       </c>
@@ -7691,7 +8221,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1591</v>
       </c>
@@ -7702,7 +8232,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>1594</v>
       </c>
@@ -7713,7 +8243,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1597</v>
       </c>
@@ -7724,7 +8254,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>1600</v>
       </c>
@@ -7735,7 +8265,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>1603</v>
       </c>
@@ -7746,7 +8276,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>1606</v>
       </c>
@@ -7757,7 +8287,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>1609</v>
       </c>
@@ -7773,7 +8303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5EF0B1-9726-492D-BC7E-A0C9D4D7F373}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -7781,14 +8311,14 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.41796875" customWidth="1"/>
-    <col min="2" max="2" width="15.15625" customWidth="1"/>
-    <col min="3" max="3" width="13.68359375" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1073</v>
       </c>
@@ -7799,7 +8329,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1123</v>
       </c>
@@ -7810,7 +8340,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1076</v>
       </c>
@@ -7821,7 +8351,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1079</v>
       </c>
@@ -7832,7 +8362,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1082</v>
       </c>
@@ -7843,7 +8373,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1085</v>
       </c>
@@ -7854,7 +8384,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1088</v>
       </c>
@@ -7865,7 +8395,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1105</v>
       </c>
@@ -7876,7 +8406,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1107</v>
       </c>
@@ -7887,7 +8417,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1110</v>
       </c>
@@ -7898,7 +8428,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>1112</v>
       </c>
@@ -7909,7 +8439,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>958</v>
       </c>
@@ -7920,7 +8450,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1117</v>
       </c>
@@ -7931,7 +8461,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>1120</v>
       </c>
@@ -7942,7 +8472,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>1126</v>
       </c>
@@ -7953,7 +8483,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>1138</v>
       </c>
@@ -7964,7 +8494,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1129</v>
       </c>
@@ -7975,7 +8505,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1132</v>
       </c>
@@ -7986,7 +8516,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1135</v>
       </c>
@@ -7997,7 +8527,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>889</v>
       </c>
@@ -8008,7 +8538,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1142</v>
       </c>
@@ -8019,7 +8549,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1145</v>
       </c>
@@ -8030,7 +8560,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1148</v>
       </c>
@@ -8041,7 +8571,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1151</v>
       </c>
@@ -8052,7 +8582,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1611</v>
       </c>
@@ -8068,7 +8598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF7CE76-0894-497E-9C0C-51F4B241042E}">
   <dimension ref="A1:C43"/>
   <sheetViews>
@@ -8076,14 +8606,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.20703125" customWidth="1"/>
-    <col min="2" max="2" width="20.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.9453125" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1155</v>
       </c>
@@ -8094,7 +8624,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1156</v>
       </c>
@@ -8105,7 +8635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1160</v>
       </c>
@@ -8116,7 +8646,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1163</v>
       </c>
@@ -8127,7 +8657,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1166</v>
       </c>
@@ -8138,7 +8668,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1169</v>
       </c>
@@ -8149,7 +8679,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1172</v>
       </c>
@@ -8160,7 +8690,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1175</v>
       </c>
@@ -8171,7 +8701,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1178</v>
       </c>
@@ -8182,7 +8712,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1181</v>
       </c>
@@ -8193,7 +8723,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>1184</v>
       </c>
@@ -8204,7 +8734,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>1187</v>
       </c>
@@ -8215,7 +8745,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1190</v>
       </c>
@@ -8226,7 +8756,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>1193</v>
       </c>
@@ -8237,7 +8767,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>1196</v>
       </c>
@@ -8248,7 +8778,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>1198</v>
       </c>
@@ -8259,7 +8789,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1202</v>
       </c>
@@ -8270,7 +8800,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1203</v>
       </c>
@@ -8281,7 +8811,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1205</v>
       </c>
@@ -8292,7 +8822,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1208</v>
       </c>
@@ -8303,7 +8833,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1211</v>
       </c>
@@ -8314,7 +8844,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1214</v>
       </c>
@@ -8325,7 +8855,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1217</v>
       </c>
@@ -8336,7 +8866,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1220</v>
       </c>
@@ -8347,7 +8877,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1223</v>
       </c>
@@ -8358,7 +8888,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1226</v>
       </c>
@@ -8369,7 +8899,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1228</v>
       </c>
@@ -8380,7 +8910,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1231</v>
       </c>
@@ -8391,7 +8921,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1234</v>
       </c>
@@ -8402,7 +8932,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1237</v>
       </c>
@@ -8413,7 +8943,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1117</v>
       </c>
@@ -8424,7 +8954,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>1240</v>
       </c>
@@ -8435,7 +8965,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1243</v>
       </c>
@@ -8446,7 +8976,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>1245</v>
       </c>
@@ -8457,7 +8987,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>1248</v>
       </c>
@@ -8468,7 +8998,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>1251</v>
       </c>
@@ -8479,7 +9009,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>1259</v>
       </c>
@@ -8490,7 +9020,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>1254</v>
       </c>
@@ -8501,7 +9031,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>1257</v>
       </c>
@@ -8512,7 +9042,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>1262</v>
       </c>
@@ -8523,7 +9053,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>1265</v>
       </c>
@@ -8534,7 +9064,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>1270</v>
       </c>
@@ -8545,7 +9075,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>624</v>
       </c>
@@ -8562,7 +9092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67FEE14-B94C-4F31-82BF-CE1A43C7428F}">
   <dimension ref="A1:C35"/>
   <sheetViews>
@@ -8570,14 +9100,14 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.3125" customWidth="1"/>
-    <col min="2" max="2" width="26.83984375" customWidth="1"/>
-    <col min="3" max="3" width="15.68359375" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1273</v>
       </c>
@@ -8588,7 +9118,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1276</v>
       </c>
@@ -8599,7 +9129,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>992</v>
       </c>
@@ -8610,7 +9140,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1279</v>
       </c>
@@ -8621,7 +9151,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1281</v>
       </c>
@@ -8632,7 +9162,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1284</v>
       </c>
@@ -8643,7 +9173,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1286</v>
       </c>
@@ -8654,7 +9184,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1289</v>
       </c>
@@ -8665,7 +9195,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1292</v>
       </c>
@@ -8676,7 +9206,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1295</v>
       </c>
@@ -8687,7 +9217,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>1298</v>
       </c>
@@ -8698,7 +9228,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>1300</v>
       </c>
@@ -8709,7 +9239,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1303</v>
       </c>
@@ -8720,7 +9250,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>1306</v>
       </c>
@@ -8731,7 +9261,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>1308</v>
       </c>
@@ -8742,7 +9272,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>1311</v>
       </c>
@@ -8753,7 +9283,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1313</v>
       </c>
@@ -8764,7 +9294,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1082</v>
       </c>
@@ -8775,7 +9305,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1316</v>
       </c>
@@ -8786,7 +9316,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>618</v>
       </c>
@@ -8797,7 +9327,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1320</v>
       </c>
@@ -8808,7 +9338,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1323</v>
       </c>
@@ -8819,7 +9349,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1138</v>
       </c>
@@ -8830,7 +9360,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1326</v>
       </c>
@@ -8841,7 +9371,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1329</v>
       </c>
@@ -8852,7 +9382,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1332</v>
       </c>
@@ -8863,7 +9393,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1335</v>
       </c>
@@ -8874,7 +9404,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1338</v>
       </c>
@@ -8885,7 +9415,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1341</v>
       </c>
@@ -8896,7 +9426,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1344</v>
       </c>
@@ -8907,7 +9437,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>283</v>
       </c>
@@ -8918,7 +9448,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>1348</v>
       </c>
@@ -8929,7 +9459,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1351</v>
       </c>
@@ -8940,7 +9470,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>1354</v>
       </c>
@@ -8951,7 +9481,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>1357</v>
       </c>
@@ -8967,7 +9497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCD0EC6-A69A-4C71-AFCC-2FD7480A7586}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -8975,14 +9505,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.83984375" customWidth="1"/>
-    <col min="2" max="2" width="23.734375" customWidth="1"/>
-    <col min="3" max="3" width="14.734375" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1360</v>
       </c>
@@ -8993,7 +9523,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1363</v>
       </c>
@@ -9004,7 +9534,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1366</v>
       </c>
@@ -9015,7 +9545,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1368</v>
       </c>
@@ -9026,7 +9556,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1374</v>
       </c>
@@ -9037,7 +9567,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1371</v>
       </c>
@@ -9048,7 +9578,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1377</v>
       </c>
@@ -9059,7 +9589,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1379</v>
       </c>
@@ -9070,7 +9600,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1383</v>
       </c>
@@ -9081,7 +9611,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1382</v>
       </c>
@@ -9092,7 +9622,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>1386</v>
       </c>
@@ -9103,7 +9633,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>1389</v>
       </c>
@@ -9114,7 +9644,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1391</v>
       </c>
@@ -9125,7 +9655,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>1394</v>
       </c>
@@ -9136,7 +9666,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>1397</v>
       </c>
@@ -9147,7 +9677,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>1110</v>
       </c>
@@ -9158,7 +9688,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1399</v>
       </c>
@@ -9169,7 +9699,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1402</v>
       </c>
@@ -9180,7 +9710,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1405</v>
       </c>
@@ -9191,7 +9721,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1408</v>
       </c>
@@ -9202,7 +9732,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1411</v>
       </c>
@@ -9213,7 +9743,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1413</v>
       </c>
@@ -9224,7 +9754,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1416</v>
       </c>
@@ -9235,7 +9765,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1419</v>
       </c>
@@ -9246,7 +9776,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1422</v>
       </c>
@@ -9257,7 +9787,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1425</v>
       </c>
@@ -9268,7 +9798,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1187</v>
       </c>
@@ -9279,7 +9809,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1428</v>
       </c>
@@ -9290,7 +9820,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1431</v>
       </c>
@@ -9301,7 +9831,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1434</v>
       </c>
@@ -9312,7 +9842,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1437</v>
       </c>
@@ -9328,7 +9858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19AF0F2-AADF-4E77-9F68-E80DC1C71650}">
   <dimension ref="A1:C49"/>
   <sheetViews>
@@ -9336,14 +9866,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.9453125" customWidth="1"/>
-    <col min="2" max="2" width="17.68359375" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1440</v>
       </c>
@@ -9354,7 +9884,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1443</v>
       </c>
@@ -9365,7 +9895,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1444</v>
       </c>
@@ -9376,7 +9906,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1447</v>
       </c>
@@ -9387,7 +9917,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1450</v>
       </c>
@@ -9398,7 +9928,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1453</v>
       </c>
@@ -9409,7 +9939,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1456</v>
       </c>
@@ -9420,7 +9950,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1459</v>
       </c>
@@ -9431,7 +9961,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1462</v>
       </c>
@@ -9442,7 +9972,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1465</v>
       </c>
@@ -9453,7 +9983,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>1468</v>
       </c>
@@ -9464,7 +9994,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>1471</v>
       </c>
@@ -9475,7 +10005,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1474</v>
       </c>
@@ -9486,7 +10016,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>1477</v>
       </c>
@@ -9497,7 +10027,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>1478</v>
       </c>
@@ -9508,7 +10038,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>1481</v>
       </c>
@@ -9519,7 +10049,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1145</v>
       </c>
@@ -9530,7 +10060,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1484</v>
       </c>
@@ -9541,7 +10071,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1487</v>
       </c>
@@ -9552,7 +10082,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1490</v>
       </c>
@@ -9563,7 +10093,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1491</v>
       </c>
@@ -9574,7 +10104,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1494</v>
       </c>
@@ -9585,7 +10115,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1496</v>
       </c>
@@ -9596,7 +10126,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1499</v>
       </c>
@@ -9607,7 +10137,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1500</v>
       </c>
@@ -9618,7 +10148,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1502</v>
       </c>
@@ -9629,7 +10159,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1505</v>
       </c>
@@ -9640,7 +10170,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1510</v>
       </c>
@@ -9651,7 +10181,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1512</v>
       </c>
@@ -9662,7 +10192,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1515</v>
       </c>
@@ -9673,7 +10203,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1518</v>
       </c>
@@ -9684,7 +10214,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>1521</v>
       </c>
@@ -9695,7 +10225,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1524</v>
       </c>
@@ -9706,7 +10236,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>1527</v>
       </c>
@@ -9717,7 +10247,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>1529</v>
       </c>
@@ -9728,7 +10258,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>1530</v>
       </c>
@@ -9739,7 +10269,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>1533</v>
       </c>
@@ -9750,7 +10280,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>1535</v>
       </c>
@@ -9761,7 +10291,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>1537</v>
       </c>
@@ -9772,7 +10302,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>1539</v>
       </c>
@@ -9783,7 +10313,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>1541</v>
       </c>
@@ -9794,7 +10324,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>1543</v>
       </c>
@@ -9805,7 +10335,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>1546</v>
       </c>
@@ -9816,7 +10346,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>1549</v>
       </c>
@@ -9827,7 +10357,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>1552</v>
       </c>
@@ -9838,7 +10368,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>1555</v>
       </c>
@@ -9849,7 +10379,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>1558</v>
       </c>
@@ -9860,7 +10390,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>1560</v>
       </c>
@@ -9871,7 +10401,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>1562</v>
       </c>
@@ -9887,7 +10417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE4CC0F-A050-4573-8757-66A837DA3C05}">
   <dimension ref="A1:C44"/>
   <sheetViews>
@@ -9895,13 +10425,13 @@
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.7890625" customWidth="1"/>
-    <col min="2" max="2" width="23.05078125" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1565</v>
       </c>
@@ -9912,7 +10442,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1568</v>
       </c>
@@ -9923,7 +10453,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -9934,7 +10464,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1570</v>
       </c>
@@ -9945,7 +10475,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1573</v>
       </c>
@@ -9956,7 +10486,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1576</v>
       </c>
@@ -9967,7 +10497,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1579</v>
       </c>
@@ -9978,7 +10508,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1614</v>
       </c>
@@ -9989,7 +10519,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1617</v>
       </c>
@@ -10000,7 +10530,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1620</v>
       </c>
@@ -10011,7 +10541,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>1623</v>
       </c>
@@ -10022,7 +10552,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>1626</v>
       </c>
@@ -10033,7 +10563,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1629</v>
       </c>
@@ -10044,7 +10574,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -10055,7 +10585,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>1632</v>
       </c>
@@ -10066,7 +10596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>1651</v>
       </c>
@@ -10077,7 +10607,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1634</v>
       </c>
@@ -10088,7 +10618,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1637</v>
       </c>
@@ -10099,7 +10629,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1640</v>
       </c>
@@ -10110,7 +10640,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1643</v>
       </c>
@@ -10121,7 +10651,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>334</v>
       </c>
@@ -10132,7 +10662,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1646</v>
       </c>
@@ -10143,7 +10673,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1649</v>
       </c>
@@ -10154,7 +10684,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1654</v>
       </c>
@@ -10165,7 +10695,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1656</v>
       </c>
@@ -10176,7 +10706,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>686</v>
       </c>
@@ -10187,7 +10717,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1659</v>
       </c>
@@ -10198,7 +10728,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1662</v>
       </c>
@@ -10209,7 +10739,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1665</v>
       </c>
@@ -10220,7 +10750,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1668</v>
       </c>
@@ -10231,7 +10761,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1671</v>
       </c>
@@ -10242,7 +10772,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -10253,7 +10783,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1676</v>
       </c>
@@ -10264,7 +10794,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>1679</v>
       </c>
@@ -10275,7 +10805,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>1682</v>
       </c>
@@ -10286,7 +10816,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>1685</v>
       </c>
@@ -10297,7 +10827,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>1687</v>
       </c>
@@ -10308,7 +10838,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>1691</v>
       </c>
@@ -10319,7 +10849,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>1693</v>
       </c>
@@ -10330,7 +10860,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>1696</v>
       </c>
@@ -10341,7 +10871,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>1698</v>
       </c>
@@ -10352,7 +10882,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>1701</v>
       </c>
@@ -10363,7 +10893,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>1704</v>
       </c>
@@ -10374,7 +10904,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>1707</v>
       </c>
@@ -10391,6 +10921,338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515CA4A8-E452-4D40-8D35-7A831E9A322C}">
+  <dimension ref="B1:C39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="18.5">
+      <c r="B1" s="6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="18.5">
+      <c r="B2" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="18.5">
+      <c r="B3" s="6" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="18.5">
+      <c r="B4" s="6" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="18.5">
+      <c r="B5" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="18.5">
+      <c r="B6" s="6" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="18.5">
+      <c r="B7" s="6" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="18.5">
+      <c r="B8" s="6" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="18.5">
+      <c r="B9" s="6" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18.5">
+      <c r="B10" s="6" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="18.5">
+      <c r="B11" s="6" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="18.5">
+      <c r="B12" s="6" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="18.5">
+      <c r="B13" s="6" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="18.5">
+      <c r="B14" s="6" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="18.5">
+      <c r="B15" s="6" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="18.5">
+      <c r="B16" s="6" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="18.5">
+      <c r="B17" s="6" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="18.5">
+      <c r="B18" s="6" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="18.5">
+      <c r="B19" s="6" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="18.5">
+      <c r="B20" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="18.5">
+      <c r="B21" s="6" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="18.5">
+      <c r="B22" s="6" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="18.5">
+      <c r="B23" s="6" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="18.5">
+      <c r="B24" s="6" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="18.5">
+      <c r="B25" s="6" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="18.5">
+      <c r="B26" s="6" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="18.5">
+      <c r="B27" s="6" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="18.5">
+      <c r="B28" s="6" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="18.5">
+      <c r="B29" s="6" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="18.5">
+      <c r="B30" s="6" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="18.5">
+      <c r="B31" s="6" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="18.5">
+      <c r="B32" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="18.5">
+      <c r="B33" s="6" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="18.5">
+      <c r="B34" s="6" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="18.5">
+      <c r="B35" s="6" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="18.5">
+      <c r="B36" s="6" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="18.5">
+      <c r="B37" s="6" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="18.5">
+      <c r="B38" s="6" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="18.5">
+      <c r="B39" s="6" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C91FA-1948-4AB4-8761-7624062EA192}">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -10398,15 +11260,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.20703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.68359375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.89453125" style="1"/>
+    <col min="1" max="1" width="22.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -10417,7 +11279,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>181</v>
       </c>
@@ -10428,7 +11290,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>182</v>
       </c>
@@ -10439,7 +11301,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>183</v>
       </c>
@@ -10450,7 +11312,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>184</v>
       </c>
@@ -10461,7 +11323,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>185</v>
       </c>
@@ -10472,7 +11334,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>186</v>
       </c>
@@ -10483,7 +11345,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>187</v>
       </c>
@@ -10494,7 +11356,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>188</v>
       </c>
@@ -10505,7 +11367,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>189</v>
       </c>
@@ -10516,7 +11378,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>190</v>
       </c>
@@ -10527,7 +11389,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>191</v>
       </c>
@@ -10538,7 +11400,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>192</v>
       </c>
@@ -10549,7 +11411,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>193</v>
       </c>
@@ -10560,7 +11422,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>194</v>
       </c>
@@ -10571,7 +11433,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>195</v>
       </c>
@@ -10582,7 +11444,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>196</v>
       </c>
@@ -10593,7 +11455,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>197</v>
       </c>
@@ -10604,7 +11466,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>198</v>
       </c>
@@ -10615,7 +11477,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>199</v>
       </c>
@@ -10626,7 +11488,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
@@ -10637,7 +11499,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>201</v>
       </c>
@@ -10648,7 +11510,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>202</v>
       </c>
@@ -10659,7 +11521,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>203</v>
       </c>
@@ -10670,7 +11532,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>204</v>
       </c>
@@ -10681,7 +11543,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>205</v>
       </c>
@@ -10692,7 +11554,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>206</v>
       </c>
@@ -10703,7 +11565,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>207</v>
       </c>
@@ -10714,7 +11576,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>151</v>
       </c>
@@ -10725,7 +11587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>208</v>
       </c>
@@ -10736,7 +11598,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>209</v>
       </c>
@@ -10747,7 +11609,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>210</v>
       </c>
@@ -10758,7 +11620,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>211</v>
       </c>
@@ -10769,7 +11631,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>212</v>
       </c>
@@ -10786,7 +11648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EB2CB1-C821-4110-9314-98B9A9D3EE1A}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -10794,14 +11656,14 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.1015625" customWidth="1"/>
-    <col min="2" max="2" width="12.5234375" customWidth="1"/>
-    <col min="3" max="3" width="14.68359375" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>274</v>
       </c>
@@ -10812,7 +11674,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>275</v>
       </c>
@@ -10823,7 +11685,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -10834,7 +11696,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>276</v>
       </c>
@@ -10845,7 +11707,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>277</v>
       </c>
@@ -10856,7 +11718,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>278</v>
       </c>
@@ -10867,7 +11729,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>279</v>
       </c>
@@ -10878,7 +11740,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -10889,7 +11751,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>281</v>
       </c>
@@ -10900,7 +11762,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>282</v>
       </c>
@@ -10911,7 +11773,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>283</v>
       </c>
@@ -10922,7 +11784,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -10933,7 +11795,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -10944,7 +11806,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>286</v>
       </c>
@@ -10955,7 +11817,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>287</v>
       </c>
@@ -10966,7 +11828,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -10977,7 +11839,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>289</v>
       </c>
@@ -10988,7 +11850,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>290</v>
       </c>
@@ -10999,7 +11861,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>291</v>
       </c>
@@ -11015,7 +11877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F47850E-37FD-42E6-865D-1EE7B2FADF4E}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -11023,13 +11885,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.89453125" customWidth="1"/>
-    <col min="2" max="2" width="13.1015625" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>325</v>
       </c>
@@ -11040,7 +11902,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>326</v>
       </c>
@@ -11051,7 +11913,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>327</v>
       </c>
@@ -11062,7 +11924,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>328</v>
       </c>
@@ -11073,7 +11935,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>329</v>
       </c>
@@ -11084,7 +11946,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>330</v>
       </c>
@@ -11095,7 +11957,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>331</v>
       </c>
@@ -11106,7 +11968,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>332</v>
       </c>
@@ -11117,7 +11979,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>333</v>
       </c>
@@ -11128,7 +11990,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>334</v>
       </c>
@@ -11139,7 +12001,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>335</v>
       </c>
@@ -11150,7 +12012,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>336</v>
       </c>
@@ -11161,7 +12023,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>337</v>
       </c>
@@ -11177,7 +12039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F6B5CA-8D95-4FC5-9AA8-51D2CA80169F}">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -11185,14 +12047,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.7890625" customWidth="1"/>
-    <col min="2" max="2" width="21.68359375" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>360</v>
       </c>
@@ -11203,7 +12065,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>374</v>
       </c>
@@ -11214,7 +12076,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>375</v>
       </c>
@@ -11225,7 +12087,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>376</v>
       </c>
@@ -11236,7 +12098,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>377</v>
       </c>
@@ -11247,7 +12109,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>378</v>
       </c>
@@ -11258,7 +12120,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>379</v>
       </c>
@@ -11269,7 +12131,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>380</v>
       </c>
@@ -11280,7 +12142,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>381</v>
       </c>
@@ -11291,7 +12153,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>382</v>
       </c>
@@ -11302,7 +12164,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>383</v>
       </c>
@@ -11313,7 +12175,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>384</v>
       </c>
@@ -11324,7 +12186,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>385</v>
       </c>
@@ -11335,7 +12197,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>386</v>
       </c>
@@ -11346,7 +12208,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>387</v>
       </c>
@@ -11357,7 +12219,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>388</v>
       </c>
@@ -11368,7 +12230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -11379,7 +12241,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>389</v>
       </c>
@@ -11390,7 +12252,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>390</v>
       </c>
@@ -11401,7 +12263,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>391</v>
       </c>
@@ -11412,7 +12274,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>392</v>
       </c>
@@ -11423,7 +12285,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>393</v>
       </c>
@@ -11434,7 +12296,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>394</v>
       </c>
@@ -11445,7 +12307,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>395</v>
       </c>
@@ -11456,7 +12318,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>396</v>
       </c>
@@ -11467,7 +12329,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>397</v>
       </c>
@@ -11478,7 +12340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>398</v>
       </c>
@@ -11489,7 +12351,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>399</v>
       </c>
@@ -11500,7 +12362,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>400</v>
       </c>
@@ -11511,7 +12373,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>401</v>
       </c>
@@ -11522,7 +12384,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>402</v>
       </c>
@@ -11533,7 +12395,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>403</v>
       </c>
@@ -11544,7 +12406,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>404</v>
       </c>
@@ -11555,7 +12417,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>405</v>
       </c>
@@ -11566,7 +12428,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>406</v>
       </c>
@@ -11577,7 +12439,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>407</v>
       </c>
@@ -11588,7 +12450,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>408</v>
       </c>
@@ -11599,7 +12461,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>409</v>
       </c>
@@ -11610,7 +12472,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>410</v>
       </c>
@@ -11621,7 +12483,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>411</v>
       </c>
@@ -11632,7 +12494,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>412</v>
       </c>
@@ -11648,7 +12510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA39ED91-A9B8-4364-9633-8B78B5545698}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -11656,14 +12518,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.41796875" customWidth="1"/>
-    <col min="2" max="2" width="14.89453125" customWidth="1"/>
-    <col min="3" max="3" width="16.41796875" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>475</v>
       </c>
@@ -11674,7 +12536,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>476</v>
       </c>
@@ -11685,7 +12547,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>477</v>
       </c>
@@ -11696,7 +12558,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>478</v>
       </c>
@@ -11707,7 +12569,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -11718,7 +12580,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -11729,7 +12591,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>481</v>
       </c>
@@ -11740,7 +12602,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>482</v>
       </c>
@@ -11751,7 +12613,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>483</v>
       </c>
@@ -11762,7 +12624,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>410</v>
       </c>
@@ -11773,7 +12635,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>484</v>
       </c>
@@ -11784,7 +12646,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>485</v>
       </c>
@@ -11795,7 +12657,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>486</v>
       </c>
@@ -11806,7 +12668,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>487</v>
       </c>
@@ -11817,7 +12679,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>388</v>
       </c>
@@ -11828,7 +12690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>488</v>
       </c>
@@ -11839,7 +12701,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>489</v>
       </c>
@@ -11850,7 +12712,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>490</v>
       </c>
@@ -11861,7 +12723,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>491</v>
       </c>
@@ -11872,7 +12734,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>492</v>
       </c>
@@ -11883,7 +12745,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>493</v>
       </c>
@@ -11894,7 +12756,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>494</v>
       </c>
@@ -11905,7 +12767,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>495</v>
       </c>
@@ -11916,7 +12778,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>496</v>
       </c>
@@ -11927,7 +12789,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>497</v>
       </c>
@@ -11943,7 +12805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C055712A-3E8A-475E-856A-0A06E2B1B743}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -11951,14 +12813,14 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.89453125" customWidth="1"/>
-    <col min="2" max="2" width="14.89453125" customWidth="1"/>
-    <col min="3" max="3" width="14.20703125" customWidth="1"/>
+    <col min="1" max="1" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>542</v>
       </c>
@@ -11969,7 +12831,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>543</v>
       </c>
@@ -11980,7 +12842,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>544</v>
       </c>
@@ -11991,7 +12853,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>545</v>
       </c>
@@ -12002,7 +12864,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>546</v>
       </c>
@@ -12013,7 +12875,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>547</v>
       </c>
@@ -12024,7 +12886,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>541</v>
       </c>
@@ -12035,7 +12897,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>548</v>
       </c>
@@ -12046,7 +12908,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>549</v>
       </c>
@@ -12057,7 +12919,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>550</v>
       </c>
@@ -12068,7 +12930,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>551</v>
       </c>
@@ -12079,7 +12941,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>552</v>
       </c>
@@ -12090,7 +12952,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>553</v>
       </c>
@@ -12101,7 +12963,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>554</v>
       </c>
@@ -12112,7 +12974,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>555</v>
       </c>
@@ -12123,7 +12985,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>556</v>
       </c>
@@ -12134,7 +12996,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>557</v>
       </c>
@@ -12145,7 +13007,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>558</v>
       </c>
@@ -12156,7 +13018,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>390</v>
       </c>
@@ -12167,7 +13029,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>559</v>
       </c>
@@ -12178,7 +13040,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>560</v>
       </c>
@@ -12189,7 +13051,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>561</v>
       </c>
@@ -12200,7 +13062,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>562</v>
       </c>
@@ -12211,7 +13073,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>563</v>
       </c>
@@ -12222,7 +13084,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>564</v>
       </c>
@@ -12233,7 +13095,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -12244,7 +13106,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>565</v>
       </c>
@@ -12260,7 +13122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AA730E-943A-4319-B07E-2B95C6DDA679}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -12268,14 +13130,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.1015625" customWidth="1"/>
-    <col min="2" max="2" width="25.89453125" customWidth="1"/>
-    <col min="3" max="3" width="18.5234375" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>615</v>
       </c>
@@ -12286,7 +13148,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>616</v>
       </c>
@@ -12297,7 +13159,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>617</v>
       </c>
@@ -12308,7 +13170,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>618</v>
       </c>
@@ -12319,7 +13181,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>619</v>
       </c>
@@ -12330,7 +13192,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>620</v>
       </c>
@@ -12341,7 +13203,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>621</v>
       </c>
@@ -12352,7 +13214,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>622</v>
       </c>
@@ -12363,7 +13225,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>623</v>
       </c>
@@ -12374,7 +13236,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>624</v>
       </c>
@@ -12385,7 +13247,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -12396,7 +13258,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>625</v>
       </c>
@@ -12407,7 +13269,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>626</v>
       </c>
@@ -12418,7 +13280,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>627</v>
       </c>
@@ -12429,7 +13291,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>628</v>
       </c>
@@ -12440,7 +13302,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>629</v>
       </c>
@@ -12451,7 +13313,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>630</v>
       </c>
@@ -12462,7 +13324,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>631</v>
       </c>
@@ -12473,7 +13335,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>632</v>
       </c>
@@ -12484,7 +13346,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>633</v>
       </c>
@@ -12493,323 +13355,6 @@
       </c>
       <c r="C20" t="s">
         <v>668</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4FD4AB-72C6-4008-B11F-B2E3CD07A640}">
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="14.20703125" customWidth="1"/>
-    <col min="2" max="2" width="16.7890625" customWidth="1"/>
-    <col min="3" max="3" width="12.41796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>674</v>
-      </c>
-      <c r="B2" t="s">
-        <v>699</v>
-      </c>
-      <c r="C2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>798</v>
-      </c>
-      <c r="B3" t="s">
-        <v>799</v>
-      </c>
-      <c r="C3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>675</v>
-      </c>
-      <c r="B4" t="s">
-        <v>700</v>
-      </c>
-      <c r="C4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>676</v>
-      </c>
-      <c r="B5" t="s">
-        <v>745</v>
-      </c>
-      <c r="C5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>677</v>
-      </c>
-      <c r="B6" t="s">
-        <v>701</v>
-      </c>
-      <c r="C6" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>678</v>
-      </c>
-      <c r="B7" t="s">
-        <v>702</v>
-      </c>
-      <c r="C7" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>679</v>
-      </c>
-      <c r="B8" t="s">
-        <v>703</v>
-      </c>
-      <c r="C8" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>680</v>
-      </c>
-      <c r="B9" t="s">
-        <v>704</v>
-      </c>
-      <c r="C9" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>681</v>
-      </c>
-      <c r="B10" t="s">
-        <v>705</v>
-      </c>
-      <c r="C10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>682</v>
-      </c>
-      <c r="B11" t="s">
-        <v>706</v>
-      </c>
-      <c r="C11" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" t="s">
-        <v>707</v>
-      </c>
-      <c r="C12" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" t="s">
-        <v>708</v>
-      </c>
-      <c r="C13" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>685</v>
-      </c>
-      <c r="B14" t="s">
-        <v>709</v>
-      </c>
-      <c r="C14" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>686</v>
-      </c>
-      <c r="B15" t="s">
-        <v>710</v>
-      </c>
-      <c r="C15" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>687</v>
-      </c>
-      <c r="B16" t="s">
-        <v>711</v>
-      </c>
-      <c r="C16" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>688</v>
-      </c>
-      <c r="B17" t="s">
-        <v>706</v>
-      </c>
-      <c r="C17" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>689</v>
-      </c>
-      <c r="B18" t="s">
-        <v>712</v>
-      </c>
-      <c r="C18" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>690</v>
-      </c>
-      <c r="B19" t="s">
-        <v>713</v>
-      </c>
-      <c r="C19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>691</v>
-      </c>
-      <c r="B21" t="s">
-        <v>714</v>
-      </c>
-      <c r="C21" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>692</v>
-      </c>
-      <c r="B22" t="s">
-        <v>715</v>
-      </c>
-      <c r="C22" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>693</v>
-      </c>
-      <c r="B23" t="s">
-        <v>716</v>
-      </c>
-      <c r="C23" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>694</v>
-      </c>
-      <c r="B24" t="s">
-        <v>717</v>
-      </c>
-      <c r="C24" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>695</v>
-      </c>
-      <c r="B25" t="s">
-        <v>718</v>
-      </c>
-      <c r="C25" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>696</v>
-      </c>
-      <c r="B26" t="s">
-        <v>719</v>
-      </c>
-      <c r="C26" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>697</v>
-      </c>
-      <c r="B27" t="s">
-        <v>720</v>
-      </c>
-      <c r="C27" t="s">
-        <v>744</v>
       </c>
     </row>
   </sheetData>
